--- a/data/datasets_src/BDD v2.xlsx
+++ b/data/datasets_src/BDD v2.xlsx
@@ -9,6 +9,7 @@
     <sheet name="Codes" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="BDD" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Commentaires" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="datamodel_injection" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BDD!$A$1:$AY$364</definedName>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1745" uniqueCount="1745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="1842">
   <si>
     <t xml:space="preserve">Statut information</t>
   </si>
@@ -5257,13 +5258,304 @@
   </si>
   <si>
     <t xml:space="preserve">Zones d'échanges entre RhinOcc et Apiviz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATTENTION : FEUILLE AUTOMATIQUE</t>
+  </si>
+  <si>
+    <t>datamodel_injection!A9:AT500</t>
+  </si>
+  <si>
+    <t>BDD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEUILLE INJECTEE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NE PAS CHANGER LES CELLULES EN ROUGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEBUT INJECTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHANGER CELLULES EN ROSE EN FONCTION DU CHAMP A SCRAPER DS LA FEUILLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIN INJECTION</t>
+  </si>
+  <si>
+    <t>RH_fiche_</t>
+  </si>
+  <si>
+    <t>column</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>AG</t>
+  </si>
+  <si>
+    <t>AH</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>AJ</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>AN</t>
+  </si>
+  <si>
+    <t>AO</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>AQ</t>
+  </si>
+  <si>
+    <t>ref_range</t>
+  </si>
+  <si>
+    <t>rh_id</t>
+  </si>
+  <si>
+    <t>departement</t>
+  </si>
+  <si>
+    <t>ville</t>
+  </si>
+  <si>
+    <t>nom</t>
+  </si>
+  <si>
+    <t>num_ref_struct</t>
+  </si>
+  <si>
+    <t>code_postal</t>
+  </si>
+  <si>
+    <t>adresse</t>
+  </si>
+  <si>
+    <t>adresse_suite</t>
+  </si>
+  <si>
+    <t>geo_</t>
+  </si>
+  <si>
+    <t>geo_bis</t>
+  </si>
+  <si>
+    <t>type_structure</t>
+  </si>
+  <si>
+    <t>rattachement</t>
+  </si>
+  <si>
+    <t>telephone_structure</t>
+  </si>
+  <si>
+    <t>email_structure</t>
+  </si>
+  <si>
+    <t>site_internet</t>
+  </si>
+  <si>
+    <t>lundi</t>
+  </si>
+  <si>
+    <t>mardi</t>
+  </si>
+  <si>
+    <t>mercredi</t>
+  </si>
+  <si>
+    <t>jeudi</t>
+  </si>
+  <si>
+    <t>vendredi</t>
+  </si>
+  <si>
+    <t>samedi</t>
+  </si>
+  <si>
+    <t>dimanche</t>
+  </si>
+  <si>
+    <t>date_maj</t>
+  </si>
+  <si>
+    <t>public_actions</t>
+  </si>
+  <si>
+    <t>conditions_acces</t>
+  </si>
+  <si>
+    <t>type_mediation</t>
+  </si>
+  <si>
+    <t>public_si_different</t>
+  </si>
+  <si>
+    <t>conditions_acces_si_diff</t>
+  </si>
+  <si>
+    <t>type_mediation_2</t>
+  </si>
+  <si>
+    <t>public_si_different_2</t>
+  </si>
+  <si>
+    <t>conditions_acces_si_diff_2</t>
+  </si>
+  <si>
+    <t>type_mediation_3</t>
+  </si>
+  <si>
+    <t>public_si_different_3</t>
+  </si>
+  <si>
+    <t>conditions_acces_si_diff_3</t>
+  </si>
+  <si>
+    <t>type_mediation_4</t>
+  </si>
+  <si>
+    <t>public_si_different_4</t>
+  </si>
+  <si>
+    <t>conditions_acces_si_diff_4</t>
+  </si>
+  <si>
+    <t>type_mediation_5</t>
+  </si>
+  <si>
+    <t>public_si_different_5</t>
+  </si>
+  <si>
+    <t>conditions_acces_si_diff_5</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>wifi</t>
+  </si>
+  <si>
+    <t>precisions</t>
+  </si>
+  <si>
+    <t>commentaires_internes</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>lon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+  <fonts count="17">
     <font>
       <name val="Arial"/>
       <color theme="1"/>
@@ -5313,8 +5605,48 @@
       <sz val="10"/>
       <u val="single"/>
     </font>
+    <font>
+      <name val="Arial"/>
+      <b/>
+      <color indexed="2"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b/>
+      <color indexed="64"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b/>
+      <color indexed="65"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <color indexed="64"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b/>
+      <color indexed="65"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b/>
+      <color indexed="64"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <color theme="1"/>
+      <sz val="10.5"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="14">
     <fill/>
     <fill/>
     <fill>
@@ -5359,8 +5691,38 @@
         <bgColor theme="9" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="2"/>
+        <bgColor indexed="2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="6"/>
+        <bgColor indexed="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+        <bgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB6D7A8"/>
+        <bgColor rgb="FFB6D7A8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="5"/>
+        <bgColor indexed="5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -5431,6 +5793,146 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -5442,7 +5944,7 @@
     <xf fontId="2" fillId="0" borderId="1" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="3" fillId="2" borderId="1" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="65">
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5524,16 +6026,10 @@
     <xf fontId="3" fillId="2" borderId="1" numFmtId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf fontId="7" fillId="6" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="8" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5543,6 +6039,87 @@
       <alignment wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="8" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="10" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="10" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="10" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="11" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="11" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="11" fillId="0" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="12" fillId="9" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="11" fillId="0" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="11" fillId="0" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="12" fillId="9" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="12" fillId="9" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="12" fillId="9" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="12" fillId="10" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="12" fillId="10" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="12" fillId="10" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="11" fillId="0" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="11" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="13" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="14" fillId="10" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="10" borderId="11" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="13" fillId="11" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="15" fillId="11" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="15" fillId="12" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="15" fillId="13" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="13" borderId="11" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="16" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5980,7 +6557,7 @@
   <sheetViews>
     <sheetView showGridLines="1" showRowColHeaders="1" workbookViewId="0" zoomScale="90">
       <pane state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="J30" activeCellId="0" sqref="J30"/>
+      <selection activeCell="G4" activeCellId="0" sqref="G4:J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.75"/>
@@ -5996,6 +6573,7 @@
     <col customWidth="1" min="13" max="13" width="31.57421875"/>
   </cols>
   <sheetData>
+    <row r="1" ht="12.75"/>
     <row r="2" ht="12.75">
       <c r="A2" s="3"/>
       <c r="I2" s="1"/>
@@ -6529,6 +7107,7 @@
       </c>
     </row>
     <row r="40" ht="12.75"/>
+    <row r="41" ht="12.75"/>
     <row r="42" ht="12.75">
       <c r="I42" s="1"/>
       <c r="J42" s="2"/>
@@ -6547,7 +7126,70 @@
     </row>
     <row r="46" ht="12.75"/>
     <row r="47" ht="12.75"/>
+    <row r="48" ht="12.75"/>
+    <row r="49" ht="12.75"/>
+    <row r="50" ht="12.75"/>
+    <row r="51" ht="12.75"/>
+    <row r="52" ht="12.75"/>
+    <row r="53" ht="12.75"/>
     <row r="54" ht="56.25" customHeight="1"/>
+    <row r="55" ht="12.75"/>
+    <row r="56" ht="12.75"/>
+    <row r="57" ht="12.75"/>
+    <row r="58" ht="12.75"/>
+    <row r="59" ht="12.75"/>
+    <row r="60" ht="12.75"/>
+    <row r="61" ht="12.75"/>
+    <row r="62" ht="12.75"/>
+    <row r="63" ht="12.75"/>
+    <row r="64" ht="12.75"/>
+    <row r="65" ht="12.75"/>
+    <row r="66" ht="12.75"/>
+    <row r="67" ht="12.75"/>
+    <row r="68" ht="12.75"/>
+    <row r="69" ht="12.75"/>
+    <row r="70" ht="12.75"/>
+    <row r="71" ht="12.75"/>
+    <row r="72" ht="12.75"/>
+    <row r="73" ht="12.75"/>
+    <row r="74" ht="12.75"/>
+    <row r="75" ht="12.75"/>
+    <row r="76" ht="12.75"/>
+    <row r="77" ht="12.75"/>
+    <row r="78" ht="12.75"/>
+    <row r="79" ht="12.75"/>
+    <row r="80" ht="12.75"/>
+    <row r="81" ht="12.75"/>
+    <row r="82" ht="12.75"/>
+    <row r="83" ht="12.75"/>
+    <row r="84" ht="12.75"/>
+    <row r="85" ht="12.75"/>
+    <row r="86" ht="12.75"/>
+    <row r="87" ht="12.75"/>
+    <row r="88" ht="12.75"/>
+    <row r="90" ht="12.75"/>
+    <row r="91" ht="12.75"/>
+    <row r="96" ht="12.75"/>
+    <row r="97" ht="12.75"/>
+    <row r="99" ht="12.75"/>
+    <row r="100" ht="12.75"/>
+    <row r="102" ht="12.75"/>
+    <row r="103" ht="12.75"/>
+    <row r="105" ht="12.75"/>
+    <row r="106" ht="12.75"/>
+    <row r="108" ht="12.75"/>
+    <row r="109" ht="12.75"/>
+    <row r="111" ht="12.75"/>
+    <row r="112" ht="12.75"/>
+    <row r="114" ht="12.75"/>
+    <row r="115" ht="12.75"/>
+    <row r="117" ht="12.75"/>
+    <row r="118" ht="12.75"/>
+    <row r="120" ht="12.75"/>
+    <row r="121" ht="12.75"/>
+    <row r="123" ht="12.75"/>
+    <row r="124" ht="12.75"/>
+    <row r="127" ht="12.75"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="M3:N3"/>
@@ -6572,7 +7214,7 @@
   <sheetViews>
     <sheetView showGridLines="1" showRowColHeaders="1" workbookViewId="0" zoomScale="90">
       <pane state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="AJ52" activeCellId="0" sqref="AJ52"/>
+      <selection activeCell="A478" activeCellId="0" sqref="A478"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75"/>
@@ -6696,7 +7338,7 @@
       <c r="AD1" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="AE1" s="33" t="s">
+      <c r="AE1" s="1" t="s">
         <v>119</v>
       </c>
       <c r="AF1" s="32" t="s">
@@ -6708,7 +7350,7 @@
       <c r="AH1" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="AI1" s="33" t="s">
+      <c r="AI1" s="1" t="s">
         <v>121</v>
       </c>
       <c r="AJ1" s="32" t="s">
@@ -6720,7 +7362,7 @@
       <c r="AL1" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="AM1" s="33" t="s">
+      <c r="AM1" s="1" t="s">
         <v>123</v>
       </c>
       <c r="AN1" s="32" t="s">
@@ -6732,7 +7374,7 @@
       <c r="AP1" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="AQ1" s="33" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>125</v>
       </c>
       <c r="AR1" s="32" t="s">
@@ -6744,7 +7386,7 @@
       <c r="AT1" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="AU1" s="33" t="s">
+      <c r="AU1" s="1" t="s">
         <v>127</v>
       </c>
       <c r="AV1" s="32" t="s">
@@ -6756,7 +7398,7 @@
       <c r="AX1" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="AY1" s="34" t="s">
+      <c r="AY1" s="33" t="s">
         <v>129</v>
       </c>
     </row>
@@ -6868,7 +7510,7 @@
       <c r="G5" s="29">
         <v>11170</v>
       </c>
-      <c r="P5" s="35" t="s">
+      <c r="P5" s="34" t="s">
         <v>150</v>
       </c>
       <c r="Y5" s="29" t="s">
@@ -6890,7 +7532,7 @@
       <c r="G6" s="29">
         <v>65440</v>
       </c>
-      <c r="P6" s="35" t="s">
+      <c r="P6" s="34" t="s">
         <v>154</v>
       </c>
       <c r="Y6" s="29" t="s">
@@ -6932,7 +7574,7 @@
       <c r="G8" s="29">
         <v>65400</v>
       </c>
-      <c r="P8" s="35" t="s">
+      <c r="P8" s="34" t="s">
         <v>159</v>
       </c>
       <c r="Y8" s="29" t="s">
@@ -7074,7 +7716,7 @@
       <c r="G13" s="29">
         <v>32000</v>
       </c>
-      <c r="P13" s="35" t="s">
+      <c r="P13" s="34" t="s">
         <v>182</v>
       </c>
       <c r="Y13" s="29" t="s">
@@ -7224,7 +7866,7 @@
       <c r="O18" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="P18" s="35" t="s">
+      <c r="P18" s="34" t="s">
         <v>202</v>
       </c>
       <c r="Y18" s="29" t="s">
@@ -7252,7 +7894,7 @@
       <c r="O19" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="P19" s="35" t="s">
+      <c r="P19" s="34" t="s">
         <v>206</v>
       </c>
       <c r="Y19" s="29" t="s">
@@ -7267,7 +7909,7 @@
       <c r="AD19" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="AE19" s="36"/>
+      <c r="AE19" s="29"/>
     </row>
     <row r="20" ht="38.25">
       <c r="A20" s="29"/>
@@ -7293,7 +7935,7 @@
       <c r="O20" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="Q20" s="35" t="s">
+      <c r="Q20" s="34" t="s">
         <v>210</v>
       </c>
       <c r="Y20" s="29" t="s">
@@ -7318,7 +7960,7 @@
       <c r="AH20" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="AI20" s="36"/>
+      <c r="AI20" s="29"/>
     </row>
     <row r="21" ht="25.5">
       <c r="C21">
@@ -7423,7 +8065,7 @@
       <c r="G23" s="29">
         <v>65200</v>
       </c>
-      <c r="P23" s="35" t="s">
+      <c r="P23" s="34" t="s">
         <v>230</v>
       </c>
       <c r="Y23" s="29" t="s">
@@ -7498,7 +8140,7 @@
       <c r="G25" s="29">
         <v>31110</v>
       </c>
-      <c r="P25" s="35" t="s">
+      <c r="P25" s="34" t="s">
         <v>238</v>
       </c>
       <c r="Y25" s="29" t="s">
@@ -7520,7 +8162,7 @@
       <c r="G26" s="29">
         <v>31110</v>
       </c>
-      <c r="P26" s="35" t="s">
+      <c r="P26" s="34" t="s">
         <v>240</v>
       </c>
       <c r="Y26" s="29" t="s">
@@ -7653,10 +8295,10 @@
       <c r="O30" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="P30" s="35" t="s">
+      <c r="P30" s="34" t="s">
         <v>259</v>
       </c>
-      <c r="Q30" s="35" t="s">
+      <c r="Q30" s="34" t="s">
         <v>260</v>
       </c>
       <c r="W30" s="29"/>
@@ -7693,16 +8335,16 @@
       <c r="R31" s="29" t="s">
         <v>266</v>
       </c>
-      <c r="S31" s="37" t="s">
+      <c r="S31" s="35" t="s">
         <v>266</v>
       </c>
-      <c r="T31" s="37" t="s">
+      <c r="T31" s="35" t="s">
         <v>266</v>
       </c>
-      <c r="U31" s="37" t="s">
+      <c r="U31" s="35" t="s">
         <v>266</v>
       </c>
-      <c r="V31" s="37" t="s">
+      <c r="V31" s="35" t="s">
         <v>266</v>
       </c>
       <c r="W31" s="29"/>
@@ -8031,7 +8673,7 @@
       <c r="G41" s="29">
         <v>65710</v>
       </c>
-      <c r="P41" s="35" t="s">
+      <c r="P41" s="34" t="s">
         <v>307</v>
       </c>
       <c r="Y41" s="29" t="s">
@@ -8079,7 +8721,7 @@
       <c r="G43" s="29">
         <v>11700</v>
       </c>
-      <c r="P43" s="35" t="s">
+      <c r="P43" s="34" t="s">
         <v>314</v>
       </c>
       <c r="Y43" s="29" t="s">
@@ -8160,7 +8802,7 @@
       <c r="N45" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="P45" s="35" t="s">
+      <c r="P45" s="34" t="s">
         <v>323</v>
       </c>
       <c r="Y45" s="29" t="s">
@@ -8204,7 +8846,7 @@
       <c r="G47" s="29">
         <v>11000</v>
       </c>
-      <c r="P47" s="35" t="s">
+      <c r="P47" s="34" t="s">
         <v>326</v>
       </c>
       <c r="Y47" s="29" t="s">
@@ -8241,19 +8883,19 @@
       <c r="Q48" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="S48" s="37" t="s">
+      <c r="S48" s="35" t="s">
         <v>332</v>
       </c>
-      <c r="T48" s="37" t="s">
+      <c r="T48" s="35" t="s">
         <v>332</v>
       </c>
-      <c r="U48" s="37" t="s">
+      <c r="U48" s="35" t="s">
         <v>332</v>
       </c>
-      <c r="V48" s="37" t="s">
+      <c r="V48" s="35" t="s">
         <v>332</v>
       </c>
-      <c r="W48" s="37" t="s">
+      <c r="W48" s="35" t="s">
         <v>333</v>
       </c>
       <c r="X48" s="29"/>
@@ -8387,7 +9029,7 @@
       <c r="G53" s="29">
         <v>65230</v>
       </c>
-      <c r="P53" s="35" t="s">
+      <c r="P53" s="34" t="s">
         <v>354</v>
       </c>
       <c r="Y53" s="29" t="s">
@@ -8534,7 +9176,7 @@
       <c r="G58" s="29">
         <v>65110</v>
       </c>
-      <c r="P58" s="35" t="s">
+      <c r="P58" s="34" t="s">
         <v>379</v>
       </c>
       <c r="Y58" s="29" t="s">
@@ -8556,7 +9198,7 @@
       <c r="G59" s="29">
         <v>11510</v>
       </c>
-      <c r="P59" s="35" t="s">
+      <c r="P59" s="34" t="s">
         <v>382</v>
       </c>
       <c r="Y59" s="29" t="s">
@@ -8616,7 +9258,7 @@
       <c r="N61" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="Q61" s="35" t="s">
+      <c r="Q61" s="34" t="s">
         <v>392</v>
       </c>
       <c r="W61" s="29"/>
@@ -8695,10 +9337,10 @@
       <c r="O63" s="29" t="s">
         <v>400</v>
       </c>
-      <c r="P63" s="35" t="s">
+      <c r="P63" s="34" t="s">
         <v>401</v>
       </c>
-      <c r="Q63" s="35" t="s">
+      <c r="Q63" s="34" t="s">
         <v>402</v>
       </c>
       <c r="Y63" s="29" t="s">
@@ -8713,7 +9355,7 @@
       <c r="AD63" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="AE63" s="36"/>
+      <c r="AE63" s="29"/>
     </row>
     <row r="64" ht="25.5">
       <c r="C64">
@@ -8770,7 +9412,7 @@
       </c>
       <c r="Z65" s="29"/>
     </row>
-    <row r="66" ht="25.5">
+    <row r="66" ht="51">
       <c r="A66" s="29"/>
       <c r="C66" s="29">
         <v>32</v>
@@ -8794,10 +9436,10 @@
       <c r="O66" s="29" t="s">
         <v>413</v>
       </c>
-      <c r="P66" s="35" t="s">
+      <c r="P66" s="34" t="s">
         <v>414</v>
       </c>
-      <c r="Q66" s="35" t="s">
+      <c r="Q66" s="34" t="s">
         <v>415</v>
       </c>
       <c r="Y66" s="29" t="s">
@@ -8836,7 +9478,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" ht="38.25">
+    <row r="68" ht="25.5">
       <c r="A68" s="29"/>
       <c r="C68" s="29">
         <v>31</v>
@@ -8860,7 +9502,7 @@
       </c>
       <c r="Z68" s="29"/>
     </row>
-    <row r="69" ht="38.25">
+    <row r="69" ht="25.5">
       <c r="A69" s="29"/>
       <c r="C69" s="29">
         <v>31</v>
@@ -9130,7 +9772,7 @@
       <c r="O78" s="29" t="s">
         <v>454</v>
       </c>
-      <c r="Q78" s="35" t="s">
+      <c r="Q78" s="34" t="s">
         <v>455</v>
       </c>
       <c r="Y78" s="29" t="s">
@@ -9544,7 +10186,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="92" ht="25.5">
+    <row r="92" ht="63.75">
       <c r="A92" s="29"/>
       <c r="C92" s="29">
         <v>31</v>
@@ -9565,25 +10207,25 @@
       <c r="O92" s="29" t="s">
         <v>521</v>
       </c>
-      <c r="P92" s="35" t="s">
+      <c r="P92" s="34" t="s">
         <v>522</v>
       </c>
-      <c r="Q92" s="35" t="s">
+      <c r="Q92" s="34" t="s">
         <v>523</v>
       </c>
-      <c r="R92" s="37" t="s">
+      <c r="R92" s="35" t="s">
         <v>524</v>
       </c>
-      <c r="S92" s="37" t="s">
+      <c r="S92" s="35" t="s">
         <v>524</v>
       </c>
-      <c r="T92" s="37" t="s">
+      <c r="T92" s="35" t="s">
         <v>524</v>
       </c>
-      <c r="U92" s="37" t="s">
+      <c r="U92" s="35" t="s">
         <v>525</v>
       </c>
-      <c r="V92" s="37" t="s">
+      <c r="V92" s="35" t="s">
         <v>524</v>
       </c>
       <c r="W92" s="29"/>
@@ -9662,7 +10304,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="95" ht="25.5">
+    <row r="95" ht="51">
       <c r="A95" s="29"/>
       <c r="C95" s="29">
         <v>31</v>
@@ -9680,22 +10322,22 @@
       <c r="H95" s="29" t="s">
         <v>533</v>
       </c>
-      <c r="P95" s="35" t="s">
+      <c r="P95" s="34" t="s">
         <v>534</v>
       </c>
-      <c r="S95" s="37" t="s">
+      <c r="S95" s="35" t="s">
         <v>535</v>
       </c>
-      <c r="T95" s="37" t="s">
+      <c r="T95" s="35" t="s">
         <v>536</v>
       </c>
-      <c r="U95" s="37" t="s">
+      <c r="U95" s="35" t="s">
         <v>535</v>
       </c>
-      <c r="V95" s="37" t="s">
+      <c r="V95" s="35" t="s">
         <v>537</v>
       </c>
-      <c r="W95" s="37" t="s">
+      <c r="W95" s="35" t="s">
         <v>537</v>
       </c>
       <c r="Y95" s="29" t="s">
@@ -9729,7 +10371,7 @@
       <c r="N96" s="29" t="s">
         <v>279</v>
       </c>
-      <c r="Q96" s="35" t="s">
+      <c r="Q96" s="34" t="s">
         <v>541</v>
       </c>
       <c r="Y96" s="29" t="s">
@@ -9823,7 +10465,7 @@
       <c r="N100" s="29" t="s">
         <v>279</v>
       </c>
-      <c r="P100" s="35" t="s">
+      <c r="P100" s="34" t="s">
         <v>550</v>
       </c>
       <c r="Y100" s="29" t="s">
@@ -9862,7 +10504,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" ht="25.5">
+    <row r="102" ht="38.25">
       <c r="A102" s="29"/>
       <c r="C102" s="29">
         <v>32</v>
@@ -9886,17 +10528,17 @@
       <c r="O102" s="29" t="s">
         <v>559</v>
       </c>
-      <c r="P102" s="35" t="s">
+      <c r="P102" s="34" t="s">
         <v>560</v>
       </c>
-      <c r="Q102" s="35" t="s">
+      <c r="Q102" s="34" t="s">
         <v>561</v>
       </c>
       <c r="Y102" s="29" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="103" ht="51">
+    <row r="103" ht="25.5">
       <c r="A103" s="29"/>
       <c r="C103" s="29">
         <v>32</v>
@@ -9911,7 +10553,7 @@
       <c r="G103" s="29">
         <v>32700</v>
       </c>
-      <c r="P103" s="35" t="s">
+      <c r="P103" s="34" t="s">
         <v>563</v>
       </c>
       <c r="Y103" s="29" t="s">
@@ -9936,7 +10578,7 @@
       <c r="N104" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="P104" s="35" t="s">
+      <c r="P104" s="34" t="s">
         <v>565</v>
       </c>
       <c r="Y104" s="29" t="s">
@@ -10017,7 +10659,7 @@
       <c r="O107" s="29" t="s">
         <v>571</v>
       </c>
-      <c r="Q107" s="35" t="s">
+      <c r="Q107" s="34" t="s">
         <v>572</v>
       </c>
       <c r="Y107" s="29" t="s">
@@ -10161,28 +10803,28 @@
       <c r="O111" s="29" t="s">
         <v>589</v>
       </c>
-      <c r="P111" s="35" t="s">
+      <c r="P111" s="34" t="s">
         <v>590</v>
       </c>
-      <c r="Q111" s="35" t="s">
+      <c r="Q111" s="34" t="s">
         <v>591</v>
       </c>
-      <c r="R111" s="37" t="s">
+      <c r="R111" s="35" t="s">
         <v>592</v>
       </c>
-      <c r="S111" s="37" t="s">
+      <c r="S111" s="35" t="s">
         <v>592</v>
       </c>
-      <c r="T111" s="37" t="s">
+      <c r="T111" s="35" t="s">
         <v>592</v>
       </c>
-      <c r="U111" s="37" t="s">
+      <c r="U111" s="35" t="s">
         <v>592</v>
       </c>
-      <c r="V111" s="37" t="s">
+      <c r="V111" s="35" t="s">
         <v>592</v>
       </c>
-      <c r="W111" s="37" t="s">
+      <c r="W111" s="35" t="s">
         <v>593</v>
       </c>
       <c r="X111" s="29"/>
@@ -10235,19 +10877,19 @@
       <c r="Q112" s="29" t="s">
         <v>600</v>
       </c>
-      <c r="R112" s="37" t="s">
+      <c r="R112" s="35" t="s">
         <v>601</v>
       </c>
-      <c r="S112" s="37" t="s">
+      <c r="S112" s="35" t="s">
         <v>601</v>
       </c>
-      <c r="T112" s="37" t="s">
+      <c r="T112" s="35" t="s">
         <v>601</v>
       </c>
-      <c r="U112" s="37" t="s">
+      <c r="U112" s="35" t="s">
         <v>601</v>
       </c>
-      <c r="V112" s="37" t="s">
+      <c r="V112" s="35" t="s">
         <v>601</v>
       </c>
       <c r="W112" s="29"/>
@@ -10427,9 +11069,9 @@
       <c r="AD116" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="AE116" s="36"/>
-    </row>
-    <row r="117" ht="25.5">
+      <c r="AE116" s="29"/>
+    </row>
+    <row r="117" ht="63.75">
       <c r="A117" s="29"/>
       <c r="C117" s="29">
         <v>65</v>
@@ -10453,7 +11095,7 @@
       <c r="O117" s="29" t="s">
         <v>622</v>
       </c>
-      <c r="Q117" s="35" t="s">
+      <c r="Q117" s="34" t="s">
         <v>624</v>
       </c>
       <c r="W117" s="29"/>
@@ -10471,7 +11113,7 @@
       <c r="AD117" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="AE117" s="36"/>
+      <c r="AE117" s="29"/>
     </row>
     <row r="118" ht="25.5">
       <c r="A118" s="29"/>
@@ -10522,7 +11164,7 @@
       <c r="G119" s="29">
         <v>65100</v>
       </c>
-      <c r="P119" s="35" t="s">
+      <c r="P119" s="34" t="s">
         <v>629</v>
       </c>
       <c r="Y119" s="29" t="s">
@@ -10618,7 +11260,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="124" ht="25.5">
+    <row r="124" ht="51">
       <c r="A124" s="29"/>
       <c r="C124" s="29">
         <v>31</v>
@@ -10639,25 +11281,25 @@
       <c r="O124" s="29" t="s">
         <v>643</v>
       </c>
-      <c r="P124" s="35" t="s">
+      <c r="P124" s="34" t="s">
         <v>644</v>
       </c>
-      <c r="Q124" s="35" t="s">
+      <c r="Q124" s="34" t="s">
         <v>645</v>
       </c>
-      <c r="R124" s="37" t="s">
+      <c r="R124" s="35" t="s">
         <v>646</v>
       </c>
-      <c r="S124" s="37" t="s">
+      <c r="S124" s="35" t="s">
         <v>646</v>
       </c>
-      <c r="T124" s="37" t="s">
+      <c r="T124" s="35" t="s">
         <v>646</v>
       </c>
-      <c r="U124" s="37" t="s">
+      <c r="U124" s="35" t="s">
         <v>646</v>
       </c>
-      <c r="V124" s="37" t="s">
+      <c r="V124" s="35" t="s">
         <v>647</v>
       </c>
       <c r="Y124" s="29" t="s">
@@ -10672,7 +11314,7 @@
       <c r="AD124" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="AE124" s="36"/>
+      <c r="AE124" s="29"/>
     </row>
     <row r="125" ht="25.5">
       <c r="C125">
@@ -10796,7 +11438,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="128" ht="24.850000000000001">
+    <row r="128" ht="25.5">
       <c r="A128" s="29"/>
       <c r="C128" s="29">
         <v>65</v>
@@ -10811,7 +11453,7 @@
       <c r="G128" s="29">
         <v>65700</v>
       </c>
-      <c r="P128" s="35" t="s">
+      <c r="P128" s="34" t="s">
         <v>667</v>
       </c>
       <c r="Y128" s="29" t="s">
@@ -10880,7 +11522,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="130" ht="36.450000000000003">
+    <row r="130" ht="25.5">
       <c r="A130" s="29"/>
       <c r="C130" s="29">
         <v>32</v>
@@ -10975,7 +11617,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="133" ht="36.450000000000003">
+    <row r="133" ht="25.5">
       <c r="A133" s="29"/>
       <c r="C133" s="29">
         <v>31</v>
@@ -11103,7 +11745,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="136" ht="24.850000000000001">
+    <row r="136" ht="25.5">
       <c r="A136" s="29"/>
       <c r="C136" s="29">
         <v>32</v>
@@ -11118,14 +11760,14 @@
       <c r="G136" s="29">
         <v>32300</v>
       </c>
-      <c r="P136" s="35" t="s">
+      <c r="P136" s="34" t="s">
         <v>714</v>
       </c>
       <c r="Y136" s="29" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="137" ht="24.850000000000001">
+    <row r="137" ht="25.5">
       <c r="A137" s="29"/>
       <c r="C137" s="29">
         <v>32</v>
@@ -11144,7 +11786,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="138" ht="36.450000000000003">
+    <row r="138" ht="25.5">
       <c r="A138" s="29"/>
       <c r="C138" s="29">
         <v>31</v>
@@ -11165,7 +11807,7 @@
       <c r="O138" s="29" t="s">
         <v>719</v>
       </c>
-      <c r="P138" s="35" t="s">
+      <c r="P138" s="34" t="s">
         <v>720</v>
       </c>
       <c r="Y138" s="29" t="s">
@@ -11355,7 +11997,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="145" ht="36.450000000000003">
+    <row r="145" ht="25.5">
       <c r="A145" s="29"/>
       <c r="C145" s="29">
         <v>31</v>
@@ -11379,28 +12021,28 @@
       <c r="O145" s="29" t="s">
         <v>753</v>
       </c>
-      <c r="P145" s="35" t="s">
+      <c r="P145" s="34" t="s">
         <v>754</v>
       </c>
-      <c r="Q145" s="35" t="s">
+      <c r="Q145" s="34" t="s">
         <v>755</v>
       </c>
-      <c r="R145" s="37" t="s">
+      <c r="R145" s="35" t="s">
         <v>756</v>
       </c>
-      <c r="S145" s="37" t="s">
+      <c r="S145" s="35" t="s">
         <v>756</v>
       </c>
-      <c r="T145" s="37" t="s">
+      <c r="T145" s="35" t="s">
         <v>756</v>
       </c>
-      <c r="U145" s="37" t="s">
+      <c r="U145" s="35" t="s">
         <v>756</v>
       </c>
-      <c r="V145" s="37" t="s">
+      <c r="V145" s="35" t="s">
         <v>756</v>
       </c>
-      <c r="W145" s="37" t="s">
+      <c r="W145" s="35" t="s">
         <v>756</v>
       </c>
       <c r="X145" s="29"/>
@@ -11586,7 +12228,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="152" ht="24.850000000000001">
+    <row r="152" ht="25.5">
       <c r="A152" s="29"/>
       <c r="C152" s="29">
         <v>31</v>
@@ -11606,7 +12248,7 @@
       </c>
       <c r="Z152" s="29"/>
     </row>
-    <row r="153" ht="24.850000000000001">
+    <row r="153" ht="25.5">
       <c r="A153" s="29"/>
       <c r="C153" s="29">
         <v>11</v>
@@ -11630,10 +12272,10 @@
       <c r="O153" s="29" t="s">
         <v>785</v>
       </c>
-      <c r="P153" s="35" t="s">
+      <c r="P153" s="34" t="s">
         <v>786</v>
       </c>
-      <c r="Q153" s="35" t="s">
+      <c r="Q153" s="34" t="s">
         <v>787</v>
       </c>
       <c r="W153" s="29"/>
@@ -11702,7 +12344,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="155" ht="23.850000000000001">
+    <row r="155" ht="25.5">
       <c r="A155" s="29"/>
       <c r="C155" s="29">
         <v>31</v>
@@ -11777,7 +12419,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="157" ht="24.850000000000001">
+    <row r="157" ht="25.5">
       <c r="A157" s="29"/>
       <c r="C157" s="29">
         <v>11</v>
@@ -11796,7 +12438,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="158" ht="24.850000000000001">
+    <row r="158" ht="25.5">
       <c r="A158" s="29"/>
       <c r="C158" s="29">
         <v>11</v>
@@ -11811,14 +12453,14 @@
       <c r="G158" s="29">
         <v>11000</v>
       </c>
-      <c r="P158" s="35" t="s">
+      <c r="P158" s="34" t="s">
         <v>802</v>
       </c>
       <c r="Y158" s="29" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="159" ht="24.850000000000001">
+    <row r="159" ht="25.5">
       <c r="A159" s="29"/>
       <c r="C159" s="29">
         <v>11</v>
@@ -11833,14 +12475,14 @@
       <c r="G159" s="29">
         <v>11000</v>
       </c>
-      <c r="P159" s="35" t="s">
+      <c r="P159" s="34" t="s">
         <v>804</v>
       </c>
       <c r="Y159" s="29" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="160" ht="48.049999999999997">
+    <row r="160" ht="38.25">
       <c r="A160" s="29"/>
       <c r="C160" s="29">
         <v>11</v>
@@ -11864,10 +12506,10 @@
       <c r="O160" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="P160" s="35" t="s">
+      <c r="P160" s="34" t="s">
         <v>808</v>
       </c>
-      <c r="Q160" s="35" t="s">
+      <c r="Q160" s="34" t="s">
         <v>809</v>
       </c>
       <c r="W160" s="29"/>
@@ -11885,7 +12527,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="161" ht="24.850000000000001">
+    <row r="161" ht="38.25">
       <c r="A161" s="29"/>
       <c r="C161" s="29">
         <v>11</v>
@@ -11909,22 +12551,22 @@
       <c r="O161" s="29" t="s">
         <v>812</v>
       </c>
-      <c r="Q161" s="35" t="s">
+      <c r="Q161" s="34" t="s">
         <v>813</v>
       </c>
-      <c r="R161" s="37" t="s">
+      <c r="R161" s="35" t="s">
         <v>814</v>
       </c>
-      <c r="S161" s="37" t="s">
+      <c r="S161" s="35" t="s">
         <v>814</v>
       </c>
-      <c r="T161" s="37" t="s">
+      <c r="T161" s="35" t="s">
         <v>814</v>
       </c>
-      <c r="U161" s="37" t="s">
+      <c r="U161" s="35" t="s">
         <v>814</v>
       </c>
-      <c r="V161" s="37" t="s">
+      <c r="V161" s="35" t="s">
         <v>814</v>
       </c>
       <c r="W161" s="29"/>
@@ -11943,7 +12585,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="162" ht="24.850000000000001">
+    <row r="162" ht="38.25">
       <c r="A162" s="29"/>
       <c r="C162" s="29">
         <v>11</v>
@@ -12198,7 +12840,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="170" ht="36.450000000000003">
+    <row r="170" ht="25.5">
       <c r="A170" s="29"/>
       <c r="C170" s="29">
         <v>32</v>
@@ -12213,7 +12855,7 @@
       <c r="G170" s="29">
         <v>32110</v>
       </c>
-      <c r="P170" s="35" t="s">
+      <c r="P170" s="34" t="s">
         <v>851</v>
       </c>
       <c r="Y170" s="29" t="s">
@@ -12307,7 +12949,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="174" ht="24.850000000000001">
+    <row r="174" ht="25.5">
       <c r="A174" s="29"/>
       <c r="C174" s="29">
         <v>31</v>
@@ -12394,7 +13036,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="176" ht="24.850000000000001">
+    <row r="176" ht="25.5">
       <c r="A176" s="29"/>
       <c r="C176" s="29">
         <v>32</v>
@@ -12466,7 +13108,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="178" ht="24.850000000000001">
+    <row r="178" ht="25.5">
       <c r="A178" s="29"/>
       <c r="C178" s="29">
         <v>31</v>
@@ -12497,7 +13139,7 @@
       <c r="AD178" s="29" t="s">
         <v>884</v>
       </c>
-      <c r="AE178" s="36"/>
+      <c r="AE178" s="29"/>
     </row>
     <row r="179" ht="24.850000000000001">
       <c r="C179">
@@ -12557,7 +13199,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="181" ht="24.850000000000001">
+    <row r="181" ht="38.25">
       <c r="A181" s="29"/>
       <c r="C181" s="29">
         <v>31</v>
@@ -12581,10 +13223,10 @@
       <c r="O181" s="29" t="s">
         <v>898</v>
       </c>
-      <c r="P181" s="35" t="s">
+      <c r="P181" s="34" t="s">
         <v>899</v>
       </c>
-      <c r="Q181" s="35" t="s">
+      <c r="Q181" s="34" t="s">
         <v>900</v>
       </c>
       <c r="Y181" s="29" t="s">
@@ -12691,7 +13333,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="184" ht="24.850000000000001">
+    <row r="184" ht="25.5">
       <c r="A184" s="29"/>
       <c r="C184" s="29">
         <v>31</v>
@@ -12743,7 +13385,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="186" ht="24.850000000000001">
+    <row r="186" ht="51">
       <c r="A186" s="29"/>
       <c r="C186" s="29">
         <v>31</v>
@@ -12764,25 +13406,25 @@
       <c r="O186" s="29" t="s">
         <v>916</v>
       </c>
-      <c r="P186" s="35" t="s">
+      <c r="P186" s="34" t="s">
         <v>920</v>
       </c>
-      <c r="Q186" s="35" t="s">
+      <c r="Q186" s="34" t="s">
         <v>921</v>
       </c>
-      <c r="S186" s="37" t="s">
+      <c r="S186" s="35" t="s">
         <v>922</v>
       </c>
-      <c r="T186" s="37" t="s">
+      <c r="T186" s="35" t="s">
         <v>923</v>
       </c>
-      <c r="U186" s="37" t="s">
+      <c r="U186" s="35" t="s">
         <v>924</v>
       </c>
-      <c r="V186" s="37" t="s">
+      <c r="V186" s="35" t="s">
         <v>923</v>
       </c>
-      <c r="W186" s="37" t="s">
+      <c r="W186" s="35" t="s">
         <v>925</v>
       </c>
       <c r="X186" s="29"/>
@@ -12887,7 +13529,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="189" ht="24.850000000000001">
+    <row r="189" ht="25.5">
       <c r="A189" s="29"/>
       <c r="C189" s="29">
         <v>32</v>
@@ -12902,7 +13544,7 @@
       <c r="G189" s="29">
         <v>32400</v>
       </c>
-      <c r="P189" s="35" t="s">
+      <c r="P189" s="34" t="s">
         <v>941</v>
       </c>
       <c r="Y189" s="29" t="s">
@@ -13092,7 +13734,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="196" ht="24.850000000000001">
+    <row r="196" ht="25.5">
       <c r="A196" s="29"/>
       <c r="C196" s="29">
         <v>32</v>
@@ -13115,7 +13757,7 @@
       </c>
       <c r="Z196" s="29"/>
     </row>
-    <row r="197" ht="24.850000000000001">
+    <row r="197" ht="25.5">
       <c r="A197" s="29"/>
       <c r="C197" s="29">
         <v>31</v>
@@ -13139,10 +13781,10 @@
       <c r="O197" s="29" t="s">
         <v>978</v>
       </c>
-      <c r="P197" s="35" t="s">
+      <c r="P197" s="34" t="s">
         <v>979</v>
       </c>
-      <c r="Q197" s="35" t="s">
+      <c r="Q197" s="34" t="s">
         <v>980</v>
       </c>
       <c r="W197" s="29"/>
@@ -13158,7 +13800,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="198" ht="24.850000000000001">
+    <row r="198" ht="25.5">
       <c r="A198" s="29"/>
       <c r="C198" s="29">
         <v>31</v>
@@ -13178,7 +13820,7 @@
       </c>
       <c r="Z198" s="29"/>
     </row>
-    <row r="199" ht="24.850000000000001">
+    <row r="199" ht="25.5">
       <c r="A199" s="29"/>
       <c r="C199" s="29">
         <v>31</v>
@@ -13198,7 +13840,7 @@
       </c>
       <c r="Z199" s="29"/>
     </row>
-    <row r="200" ht="24.850000000000001">
+    <row r="200" ht="25.5">
       <c r="A200" s="29"/>
       <c r="C200" s="29">
         <v>31</v>
@@ -13247,7 +13889,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="202" ht="24.850000000000001">
+    <row r="202" ht="25.5">
       <c r="A202" s="29"/>
       <c r="C202" s="29">
         <v>65</v>
@@ -13267,7 +13909,7 @@
       </c>
       <c r="Z202" s="29"/>
     </row>
-    <row r="203" ht="24.850000000000001">
+    <row r="203" ht="25.5">
       <c r="A203" s="29"/>
       <c r="C203" s="29">
         <v>65</v>
@@ -13282,7 +13924,7 @@
       <c r="G203" s="29">
         <v>65150</v>
       </c>
-      <c r="P203" s="35" t="s">
+      <c r="P203" s="34" t="s">
         <v>992</v>
       </c>
       <c r="Y203" s="29" t="s">
@@ -13318,7 +13960,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="205" ht="24.850000000000001">
+    <row r="205" ht="38.25">
       <c r="A205" s="29"/>
       <c r="C205" s="29">
         <v>11</v>
@@ -13345,25 +13987,25 @@
       <c r="O205" s="29" t="s">
         <v>1002</v>
       </c>
-      <c r="P205" s="35" t="s">
+      <c r="P205" s="34" t="s">
         <v>1003</v>
       </c>
-      <c r="Q205" s="35" t="s">
+      <c r="Q205" s="34" t="s">
         <v>1004</v>
       </c>
-      <c r="R205" s="37" t="s">
+      <c r="R205" s="35" t="s">
         <v>1005</v>
       </c>
-      <c r="S205" s="37" t="s">
+      <c r="S205" s="35" t="s">
         <v>1006</v>
       </c>
-      <c r="T205" s="37" t="s">
+      <c r="T205" s="35" t="s">
         <v>1005</v>
       </c>
-      <c r="U205" s="37" t="s">
+      <c r="U205" s="35" t="s">
         <v>1006</v>
       </c>
-      <c r="V205" s="37" t="s">
+      <c r="V205" s="35" t="s">
         <v>1006</v>
       </c>
       <c r="W205" s="29"/>
@@ -13393,7 +14035,7 @@
       <c r="AW205" s="29"/>
       <c r="AX205" s="29"/>
     </row>
-    <row r="206" ht="24.850000000000001">
+    <row r="206" ht="25.5">
       <c r="A206" s="29"/>
       <c r="C206" s="29">
         <v>31</v>
@@ -13418,7 +14060,7 @@
       </c>
       <c r="Z206" s="29"/>
     </row>
-    <row r="207" ht="24.850000000000001">
+    <row r="207" ht="25.5">
       <c r="A207" s="29"/>
       <c r="C207" s="29">
         <v>31</v>
@@ -13501,7 +14143,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="210" ht="36.450000000000003">
+    <row r="210" ht="38.25">
       <c r="A210" s="29"/>
       <c r="C210" s="29">
         <v>32</v>
@@ -13525,10 +14167,10 @@
       <c r="O210" s="29" t="s">
         <v>1021</v>
       </c>
-      <c r="P210" s="35" t="s">
+      <c r="P210" s="34" t="s">
         <v>1022</v>
       </c>
-      <c r="Q210" s="35" t="s">
+      <c r="Q210" s="34" t="s">
         <v>1023</v>
       </c>
       <c r="W210" s="29"/>
@@ -13543,7 +14185,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="211" ht="24.850000000000001">
+    <row r="211" ht="38.25">
       <c r="A211" s="29"/>
       <c r="C211" s="29">
         <v>31</v>
@@ -13567,7 +14209,7 @@
       <c r="O211" s="29" t="s">
         <v>1028</v>
       </c>
-      <c r="Q211" s="35" t="s">
+      <c r="Q211" s="34" t="s">
         <v>1029</v>
       </c>
       <c r="Y211" s="29" t="s">
@@ -13583,7 +14225,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="212" ht="24.850000000000001">
+    <row r="212" ht="38.25">
       <c r="A212" s="29"/>
       <c r="C212" s="29">
         <v>31</v>
@@ -13610,7 +14252,7 @@
       <c r="O212" s="29" t="s">
         <v>987</v>
       </c>
-      <c r="Q212" s="35" t="s">
+      <c r="Q212" s="34" t="s">
         <v>1029</v>
       </c>
       <c r="W212" s="29"/>
@@ -13659,7 +14301,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="214" ht="24.850000000000001">
+    <row r="214" ht="25.5">
       <c r="A214" s="29"/>
       <c r="C214" s="29">
         <v>31</v>
@@ -13683,7 +14325,7 @@
       <c r="O214" s="29" t="s">
         <v>1039</v>
       </c>
-      <c r="P214" s="35" t="s">
+      <c r="P214" s="34" t="s">
         <v>1040</v>
       </c>
       <c r="W214" s="29"/>
@@ -13769,7 +14411,7 @@
       </c>
       <c r="Z216" s="29"/>
     </row>
-    <row r="217" ht="24.850000000000001">
+    <row r="217" ht="25.5">
       <c r="A217" s="29"/>
       <c r="C217" s="29">
         <v>32</v>
@@ -13787,10 +14429,10 @@
       <c r="O217" s="29" t="s">
         <v>1048</v>
       </c>
-      <c r="P217" s="35" t="s">
+      <c r="P217" s="34" t="s">
         <v>1049</v>
       </c>
-      <c r="Q217" s="35" t="s">
+      <c r="Q217" s="34" t="s">
         <v>1050</v>
       </c>
       <c r="Y217" s="29" t="s">
@@ -13798,7 +14440,7 @@
       </c>
       <c r="Z217" s="29"/>
     </row>
-    <row r="218" ht="24.850000000000001">
+    <row r="218" ht="25.5">
       <c r="A218" s="29"/>
       <c r="C218" s="29">
         <v>32</v>
@@ -13909,7 +14551,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="221" ht="24.850000000000001">
+    <row r="221" ht="38.25">
       <c r="A221" s="29"/>
       <c r="C221" s="29">
         <v>32</v>
@@ -13936,16 +14578,16 @@
       <c r="P221" s="29" t="s">
         <v>1067</v>
       </c>
-      <c r="S221" s="37" t="s">
+      <c r="S221" s="35" t="s">
         <v>1068</v>
       </c>
-      <c r="T221" s="37" t="s">
+      <c r="T221" s="35" t="s">
         <v>1068</v>
       </c>
-      <c r="U221" s="37" t="s">
+      <c r="U221" s="35" t="s">
         <v>1068</v>
       </c>
-      <c r="V221" s="37" t="s">
+      <c r="V221" s="35" t="s">
         <v>1068</v>
       </c>
       <c r="W221" s="29"/>
@@ -14452,7 +15094,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="235" ht="24.850000000000001">
+    <row r="235" ht="38.25">
       <c r="A235" s="29"/>
       <c r="C235" s="29">
         <v>11</v>
@@ -14467,14 +15109,14 @@
       <c r="G235" s="29">
         <v>11200</v>
       </c>
-      <c r="P235" s="35" t="s">
+      <c r="P235" s="34" t="s">
         <v>1138</v>
       </c>
       <c r="Y235" s="29" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="236" ht="36.450000000000003">
+    <row r="236" ht="25.5">
       <c r="A236" s="29"/>
       <c r="C236" s="29">
         <v>31</v>
@@ -14501,7 +15143,7 @@
       <c r="O236" s="29" t="s">
         <v>1143</v>
       </c>
-      <c r="Q236" s="35" t="s">
+      <c r="Q236" s="34" t="s">
         <v>1144</v>
       </c>
       <c r="X236" s="29"/>
@@ -14515,7 +15157,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="237" ht="24.850000000000001">
+    <row r="237" ht="25.5">
       <c r="A237" s="29"/>
       <c r="C237" s="29">
         <v>31</v>
@@ -14536,7 +15178,7 @@
       <c r="N237" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="P237" s="35" t="s">
+      <c r="P237" s="34" t="s">
         <v>1146</v>
       </c>
       <c r="W237" s="29"/>
@@ -14551,7 +15193,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="238" ht="24.850000000000001">
+    <row r="238" ht="25.5">
       <c r="A238" s="29"/>
       <c r="C238" s="29">
         <v>31</v>
@@ -14577,7 +15219,7 @@
       </c>
       <c r="Z238" s="29"/>
     </row>
-    <row r="239" ht="24.850000000000001">
+    <row r="239" ht="25.5">
       <c r="A239" s="29"/>
       <c r="C239" s="29">
         <v>31</v>
@@ -14630,7 +15272,7 @@
       </c>
       <c r="Z240" s="29"/>
     </row>
-    <row r="241" ht="24.850000000000001">
+    <row r="241" ht="38.25">
       <c r="A241" s="29"/>
       <c r="C241" s="29">
         <v>31</v>
@@ -14654,7 +15296,7 @@
       <c r="N241" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="Q241" s="35" t="s">
+      <c r="Q241" s="34" t="s">
         <v>1152</v>
       </c>
       <c r="Y241" s="29" t="s">
@@ -14662,7 +15304,7 @@
       </c>
       <c r="Z241" s="29"/>
     </row>
-    <row r="242" ht="24.850000000000001">
+    <row r="242" ht="25.5">
       <c r="A242" s="29"/>
       <c r="C242" s="29">
         <v>31</v>
@@ -14689,7 +15331,7 @@
       </c>
       <c r="Z242" s="29"/>
     </row>
-    <row r="243" ht="36.450000000000003">
+    <row r="243" ht="25.5">
       <c r="A243" s="29"/>
       <c r="C243" s="29">
         <v>31</v>
@@ -14719,7 +15361,7 @@
       </c>
       <c r="Z243" s="29"/>
     </row>
-    <row r="244" ht="24.850000000000001">
+    <row r="244" ht="25.5">
       <c r="A244" s="29"/>
       <c r="C244" s="29">
         <v>31</v>
@@ -14746,7 +15388,7 @@
       </c>
       <c r="Z244" s="29"/>
     </row>
-    <row r="245" ht="24.850000000000001">
+    <row r="245" ht="25.5">
       <c r="A245" s="29"/>
       <c r="C245" s="29">
         <v>31</v>
@@ -14772,7 +15414,7 @@
       </c>
       <c r="Z245" s="29"/>
     </row>
-    <row r="246" ht="24.850000000000001">
+    <row r="246" ht="38.25">
       <c r="A246" s="29"/>
       <c r="C246" s="29">
         <v>31</v>
@@ -14799,17 +15441,17 @@
       <c r="O246" s="29" t="s">
         <v>1160</v>
       </c>
-      <c r="P246" s="35" t="s">
+      <c r="P246" s="34" t="s">
         <v>1161</v>
       </c>
-      <c r="Q246" s="35" t="s">
+      <c r="Q246" s="34" t="s">
         <v>1162</v>
       </c>
       <c r="Y246" s="29" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="247" ht="48.049999999999997">
+    <row r="247" ht="25.5">
       <c r="A247" s="29"/>
       <c r="C247" s="29">
         <v>31</v>
@@ -14830,14 +15472,14 @@
       <c r="N247" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="P247" s="35" t="s">
+      <c r="P247" s="34" t="s">
         <v>1164</v>
       </c>
       <c r="Y247" s="29" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="248" ht="36.450000000000003">
+    <row r="248" ht="25.5">
       <c r="A248" s="29"/>
       <c r="C248" s="29">
         <v>31</v>
@@ -14868,7 +15510,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="249" ht="24.850000000000001">
+    <row r="249" ht="25.5">
       <c r="A249" s="29"/>
       <c r="C249" s="29">
         <v>31</v>
@@ -14894,7 +15536,7 @@
       </c>
       <c r="Z249" s="29"/>
     </row>
-    <row r="250" ht="24.850000000000001">
+    <row r="250" ht="25.5">
       <c r="A250" s="29"/>
       <c r="C250" s="29">
         <v>31</v>
@@ -14925,7 +15567,7 @@
       </c>
       <c r="Z250" s="29"/>
     </row>
-    <row r="251" ht="24.850000000000001">
+    <row r="251" ht="25.5">
       <c r="A251" s="29"/>
       <c r="C251" s="29">
         <v>31</v>
@@ -14953,7 +15595,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="252" ht="24.850000000000001">
+    <row r="252" ht="25.5">
       <c r="A252" s="29"/>
       <c r="C252" s="29">
         <v>31</v>
@@ -14973,7 +15615,7 @@
       </c>
       <c r="Z252" s="29"/>
     </row>
-    <row r="253" ht="24.850000000000001">
+    <row r="253" ht="25.5">
       <c r="A253" s="29"/>
       <c r="C253" s="29">
         <v>31</v>
@@ -14988,14 +15630,14 @@
       <c r="G253" s="29">
         <v>31000</v>
       </c>
-      <c r="P253" s="35" t="s">
+      <c r="P253" s="34" t="s">
         <v>1177</v>
       </c>
       <c r="Y253" s="29" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="254" ht="24.850000000000001">
+    <row r="254" ht="25.5">
       <c r="A254" s="29"/>
       <c r="C254" s="29">
         <v>31</v>
@@ -15010,14 +15652,14 @@
       <c r="G254" s="29">
         <v>31000</v>
       </c>
-      <c r="P254" s="35" t="s">
+      <c r="P254" s="34" t="s">
         <v>1179</v>
       </c>
       <c r="Y254" s="29" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="255" ht="24.850000000000001">
+    <row r="255" ht="25.5">
       <c r="A255" s="29"/>
       <c r="C255" s="29">
         <v>31</v>
@@ -15054,7 +15696,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="256" ht="24.850000000000001">
+    <row r="256" ht="25.5">
       <c r="A256" s="29"/>
       <c r="C256" s="29">
         <v>31</v>
@@ -15096,7 +15738,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="257" ht="24.850000000000001">
+    <row r="257" ht="38.25">
       <c r="A257" s="29"/>
       <c r="C257" s="29">
         <v>31</v>
@@ -15120,7 +15762,7 @@
       <c r="O257" s="29" t="s">
         <v>1190</v>
       </c>
-      <c r="Q257" s="35" t="s">
+      <c r="Q257" s="34" t="s">
         <v>1191</v>
       </c>
       <c r="Y257" s="29" t="s">
@@ -15139,7 +15781,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="258" ht="24.850000000000001">
+    <row r="258" ht="25.5">
       <c r="A258" s="29"/>
       <c r="C258" s="29">
         <v>31</v>
@@ -15163,7 +15805,7 @@
       <c r="O258" s="29" t="s">
         <v>1190</v>
       </c>
-      <c r="Q258" s="35" t="s">
+      <c r="Q258" s="34" t="s">
         <v>1191</v>
       </c>
       <c r="Y258" s="29" t="s">
@@ -15182,7 +15824,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="259" ht="24.850000000000001">
+    <row r="259" ht="38.25">
       <c r="A259" s="29"/>
       <c r="C259" s="29">
         <v>31</v>
@@ -15209,10 +15851,10 @@
       <c r="O259" s="29" t="s">
         <v>1197</v>
       </c>
-      <c r="P259" s="35" t="s">
+      <c r="P259" s="34" t="s">
         <v>1198</v>
       </c>
-      <c r="Q259" s="35" t="s">
+      <c r="Q259" s="34" t="s">
         <v>1199</v>
       </c>
       <c r="R259" s="29" t="s">
@@ -15245,7 +15887,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="260" ht="24.850000000000001">
+    <row r="260" ht="25.5">
       <c r="A260" s="29"/>
       <c r="C260" s="29">
         <v>31</v>
@@ -15272,7 +15914,7 @@
       <c r="O260" s="29" t="s">
         <v>1204</v>
       </c>
-      <c r="P260" s="35" t="s">
+      <c r="P260" s="34" t="s">
         <v>1205</v>
       </c>
       <c r="W260" s="29"/>
@@ -15288,7 +15930,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="261" ht="24.850000000000001">
+    <row r="261" ht="38.25">
       <c r="A261" s="29"/>
       <c r="C261" s="29">
         <v>31</v>
@@ -15319,7 +15961,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="262" ht="24.850000000000001">
+    <row r="262" ht="25.5">
       <c r="A262" s="29"/>
       <c r="C262" s="29">
         <v>31</v>
@@ -15343,10 +15985,10 @@
       <c r="O262" s="29" t="s">
         <v>1211</v>
       </c>
-      <c r="P262" s="35" t="s">
+      <c r="P262" s="34" t="s">
         <v>1212</v>
       </c>
-      <c r="Q262" s="35" t="s">
+      <c r="Q262" s="34" t="s">
         <v>1213</v>
       </c>
       <c r="W262" s="29"/>
@@ -15361,7 +16003,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="263" ht="24.850000000000001">
+    <row r="263" ht="25.5">
       <c r="A263" s="29"/>
       <c r="C263" s="29">
         <v>31</v>
@@ -15385,7 +16027,7 @@
       <c r="O263" s="29" t="s">
         <v>1216</v>
       </c>
-      <c r="P263" s="35" t="s">
+      <c r="P263" s="34" t="s">
         <v>1217</v>
       </c>
       <c r="W263" s="29"/>
@@ -15400,7 +16042,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="264" ht="24.850000000000001">
+    <row r="264" ht="25.5">
       <c r="A264" s="29"/>
       <c r="C264" s="29">
         <v>31</v>
@@ -15426,7 +16068,7 @@
       </c>
       <c r="Z264" s="29"/>
     </row>
-    <row r="265" ht="24.850000000000001">
+    <row r="265" ht="25.5">
       <c r="A265" s="29"/>
       <c r="C265" s="29">
         <v>31</v>
@@ -15449,7 +16091,7 @@
       </c>
       <c r="Z265" s="29"/>
     </row>
-    <row r="266" ht="24.850000000000001">
+    <row r="266" ht="38.25">
       <c r="A266" s="29"/>
       <c r="C266" s="29">
         <v>31</v>
@@ -15470,10 +16112,10 @@
       <c r="N266" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="P266" s="35" t="s">
+      <c r="P266" s="34" t="s">
         <v>1223</v>
       </c>
-      <c r="Q266" s="35" t="s">
+      <c r="Q266" s="34" t="s">
         <v>1224</v>
       </c>
       <c r="Y266" s="29" t="s">
@@ -15481,7 +16123,7 @@
       </c>
       <c r="Z266" s="29"/>
     </row>
-    <row r="267" ht="24.850000000000001">
+    <row r="267" ht="25.5">
       <c r="A267" s="29"/>
       <c r="C267" s="29">
         <v>31</v>
@@ -15504,7 +16146,7 @@
       </c>
       <c r="Z267" s="29"/>
     </row>
-    <row r="268" ht="24.850000000000001">
+    <row r="268" ht="25.5">
       <c r="A268" s="29"/>
       <c r="C268" s="29">
         <v>31</v>
@@ -15528,7 +16170,7 @@
       <c r="O268" s="29" t="s">
         <v>1228</v>
       </c>
-      <c r="P268" s="35" t="s">
+      <c r="P268" s="34" t="s">
         <v>1229</v>
       </c>
       <c r="Y268" s="29" t="s">
@@ -15536,7 +16178,7 @@
       </c>
       <c r="Z268" s="29"/>
     </row>
-    <row r="269" ht="24.850000000000001">
+    <row r="269" ht="25.5">
       <c r="A269" s="29"/>
       <c r="C269" s="29">
         <v>31</v>
@@ -15559,7 +16201,7 @@
       </c>
       <c r="Z269" s="29"/>
     </row>
-    <row r="270" ht="24.850000000000001">
+    <row r="270" ht="25.5">
       <c r="A270" s="29"/>
       <c r="C270" s="29">
         <v>31</v>
@@ -15582,7 +16224,7 @@
       </c>
       <c r="Z270" s="29"/>
     </row>
-    <row r="271" ht="24.850000000000001">
+    <row r="271" ht="25.5">
       <c r="A271" s="29"/>
       <c r="C271" s="29">
         <v>31</v>
@@ -15608,7 +16250,7 @@
       </c>
       <c r="Z271" s="29"/>
     </row>
-    <row r="272" ht="24.850000000000001">
+    <row r="272" ht="25.5">
       <c r="A272" s="29"/>
       <c r="C272" s="29">
         <v>31</v>
@@ -15631,7 +16273,7 @@
       </c>
       <c r="Z272" s="29"/>
     </row>
-    <row r="273" ht="24.850000000000001">
+    <row r="273" ht="25.5">
       <c r="A273" s="29"/>
       <c r="C273" s="29">
         <v>31</v>
@@ -15657,7 +16299,7 @@
       </c>
       <c r="Z273" s="29"/>
     </row>
-    <row r="274" ht="24.850000000000001">
+    <row r="274" ht="38.25">
       <c r="A274" s="29"/>
       <c r="C274" s="29">
         <v>31</v>
@@ -15678,10 +16320,10 @@
       <c r="N274" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="P274" s="35" t="s">
+      <c r="P274" s="34" t="s">
         <v>1239</v>
       </c>
-      <c r="Q274" s="35" t="s">
+      <c r="Q274" s="34" t="s">
         <v>1240</v>
       </c>
       <c r="W274" s="29"/>
@@ -15689,7 +16331,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="275" ht="24.850000000000001">
+    <row r="275" ht="25.5">
       <c r="A275" s="29"/>
       <c r="C275" s="29">
         <v>31</v>
@@ -15713,7 +16355,7 @@
       <c r="O275" s="29" t="s">
         <v>1243</v>
       </c>
-      <c r="P275" s="35" t="s">
+      <c r="P275" s="34" t="s">
         <v>1244</v>
       </c>
       <c r="W275" s="29"/>
@@ -15721,7 +16363,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="276" ht="24.850000000000001">
+    <row r="276" ht="25.5">
       <c r="A276" s="29"/>
       <c r="C276" s="29">
         <v>31</v>
@@ -15739,14 +16381,14 @@
       <c r="N276" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="P276" s="35" t="s">
+      <c r="P276" s="34" t="s">
         <v>1246</v>
       </c>
       <c r="Y276" s="29" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="277" ht="24.850000000000001">
+    <row r="277" ht="25.5">
       <c r="A277" s="29"/>
       <c r="C277" s="29">
         <v>31</v>
@@ -15771,7 +16413,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="278" ht="23.850000000000001">
+    <row r="278" ht="51">
       <c r="A278" s="29"/>
       <c r="C278" s="29">
         <v>31</v>
@@ -15799,7 +16441,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="279" ht="24.850000000000001">
+    <row r="279" ht="25.5">
       <c r="A279" s="29"/>
       <c r="C279" s="29">
         <v>31</v>
@@ -15824,7 +16466,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="280" ht="24.850000000000001">
+    <row r="280" ht="25.5">
       <c r="A280" s="29"/>
       <c r="C280" s="29">
         <v>31</v>
@@ -15849,7 +16491,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="281" ht="24.850000000000001">
+    <row r="281" ht="25.5">
       <c r="A281" s="29"/>
       <c r="C281" s="29">
         <v>31</v>
@@ -15870,10 +16512,10 @@
       <c r="O281" s="29" t="s">
         <v>1258</v>
       </c>
-      <c r="P281" s="35" t="s">
+      <c r="P281" s="34" t="s">
         <v>1259</v>
       </c>
-      <c r="Q281" s="35" t="s">
+      <c r="Q281" s="34" t="s">
         <v>1260</v>
       </c>
       <c r="W281" s="29"/>
@@ -15883,7 +16525,7 @@
       </c>
       <c r="Z281" s="29"/>
     </row>
-    <row r="282" ht="24.850000000000001">
+    <row r="282" ht="25.5">
       <c r="A282" s="29"/>
       <c r="C282" s="29">
         <v>31</v>
@@ -15903,7 +16545,7 @@
       </c>
       <c r="Z282" s="29"/>
     </row>
-    <row r="283" ht="24.850000000000001">
+    <row r="283" ht="25.5">
       <c r="A283" s="29"/>
       <c r="C283" s="29">
         <v>31</v>
@@ -15925,7 +16567,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="284" ht="23.850000000000001">
+    <row r="284" ht="25.5">
       <c r="A284" s="29"/>
       <c r="C284" s="29">
         <v>31</v>
@@ -15962,7 +16604,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="285" ht="24.850000000000001">
+    <row r="285" ht="51">
       <c r="A285" s="29"/>
       <c r="C285" s="29">
         <v>31</v>
@@ -15986,28 +16628,28 @@
       <c r="O285" s="29" t="s">
         <v>1270</v>
       </c>
-      <c r="Q285" s="35" t="s">
+      <c r="Q285" s="34" t="s">
         <v>1271</v>
       </c>
       <c r="R285" s="29" t="s">
         <v>1272</v>
       </c>
-      <c r="S285" s="37" t="s">
+      <c r="S285" s="35" t="s">
         <v>1272</v>
       </c>
-      <c r="T285" s="37" t="s">
+      <c r="T285" s="35" t="s">
         <v>1272</v>
       </c>
-      <c r="U285" s="37" t="s">
+      <c r="U285" s="35" t="s">
         <v>1272</v>
       </c>
-      <c r="V285" s="37" t="s">
+      <c r="V285" s="35" t="s">
         <v>1272</v>
       </c>
-      <c r="W285" s="37" t="s">
+      <c r="W285" s="35" t="s">
         <v>1272</v>
       </c>
-      <c r="X285" s="37"/>
+      <c r="X285" s="35"/>
       <c r="Y285" s="29" t="s">
         <v>151</v>
       </c>
@@ -16022,7 +16664,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="286" ht="36.450000000000003">
+    <row r="286" ht="25.5">
       <c r="A286" s="29"/>
       <c r="C286" s="29">
         <v>31</v>
@@ -16046,7 +16688,7 @@
       <c r="N286" s="29" t="s">
         <v>1189</v>
       </c>
-      <c r="Q286" s="35" t="s">
+      <c r="Q286" s="34" t="s">
         <v>1191</v>
       </c>
       <c r="Y286" s="29" t="s">
@@ -16062,7 +16704,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="287" ht="36.450000000000003">
+    <row r="287" ht="25.5">
       <c r="A287" s="29"/>
       <c r="C287" s="29">
         <v>31</v>
@@ -16104,7 +16746,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="288" ht="24.850000000000001">
+    <row r="288" ht="25.5">
       <c r="A288" s="29"/>
       <c r="C288" s="29">
         <v>31</v>
@@ -16135,7 +16777,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="289" ht="24.850000000000001">
+    <row r="289" ht="25.5">
       <c r="A289" s="29"/>
       <c r="C289" s="29">
         <v>31</v>
@@ -16164,7 +16806,7 @@
       </c>
       <c r="Z289" s="29"/>
     </row>
-    <row r="290" ht="36.450000000000003">
+    <row r="290" ht="38.25">
       <c r="A290" s="29"/>
       <c r="C290" s="29">
         <v>31</v>
@@ -16192,7 +16834,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="291" ht="23.850000000000001">
+    <row r="291" ht="38.25">
       <c r="A291" s="29"/>
       <c r="C291" s="29">
         <v>31</v>
@@ -16216,17 +16858,17 @@
       <c r="O291" s="29" t="s">
         <v>1292</v>
       </c>
-      <c r="P291" s="35" t="s">
+      <c r="P291" s="34" t="s">
         <v>1293</v>
       </c>
-      <c r="Q291" s="35" t="s">
+      <c r="Q291" s="34" t="s">
         <v>1294</v>
       </c>
       <c r="Y291" s="29" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="292" ht="24.850000000000001">
+    <row r="292" ht="25.5">
       <c r="A292" s="29"/>
       <c r="C292" s="29">
         <v>31</v>
@@ -16254,7 +16896,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="293" ht="24.850000000000001">
+    <row r="293" ht="25.5">
       <c r="A293" s="29"/>
       <c r="C293" s="29">
         <v>31</v>
@@ -16282,7 +16924,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="294" ht="36.450000000000003">
+    <row r="294" ht="25.5">
       <c r="A294" s="29"/>
       <c r="C294" s="29">
         <v>31</v>
@@ -16306,17 +16948,17 @@
       <c r="O294" s="29" t="s">
         <v>1303</v>
       </c>
-      <c r="P294" s="35" t="s">
+      <c r="P294" s="34" t="s">
         <v>1304</v>
       </c>
-      <c r="Q294" s="35" t="s">
+      <c r="Q294" s="34" t="s">
         <v>1305</v>
       </c>
       <c r="Y294" s="29" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="295" ht="24.850000000000001">
+    <row r="295" ht="25.5">
       <c r="A295" s="29"/>
       <c r="C295" s="29">
         <v>31</v>
@@ -16340,14 +16982,14 @@
       <c r="O295" s="29" t="s">
         <v>1308</v>
       </c>
-      <c r="P295" s="35" t="s">
+      <c r="P295" s="34" t="s">
         <v>1309</v>
       </c>
       <c r="Y295" s="29" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="296" ht="24.850000000000001">
+    <row r="296" ht="25.5">
       <c r="A296" s="29"/>
       <c r="C296" s="29">
         <v>31</v>
@@ -16375,7 +17017,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="297" ht="24.850000000000001">
+    <row r="297" ht="38.25">
       <c r="A297" s="29"/>
       <c r="C297" s="29">
         <v>31</v>
@@ -16403,7 +17045,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="298" ht="24.850000000000001">
+    <row r="298" ht="25.5">
       <c r="A298" s="29"/>
       <c r="C298" s="29">
         <v>31</v>
@@ -16431,7 +17073,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="299" ht="24.850000000000001">
+    <row r="299" ht="25.5">
       <c r="A299" s="29"/>
       <c r="C299" s="29">
         <v>31</v>
@@ -16485,9 +17127,9 @@
       <c r="AL299" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="AM299" s="36"/>
-    </row>
-    <row r="300" ht="24.850000000000001">
+      <c r="AM299" s="29"/>
+    </row>
+    <row r="300" ht="25.5">
       <c r="A300" s="29"/>
       <c r="C300" s="29">
         <v>31</v>
@@ -16502,7 +17144,7 @@
       <c r="G300" s="29">
         <v>31200</v>
       </c>
-      <c r="Q300" s="35" t="s">
+      <c r="Q300" s="34" t="s">
         <v>1323</v>
       </c>
       <c r="Y300" s="29" t="s">
@@ -16510,7 +17152,7 @@
       </c>
       <c r="Z300" s="29"/>
     </row>
-    <row r="301" ht="24.850000000000001">
+    <row r="301" ht="25.5">
       <c r="A301" s="29"/>
       <c r="C301" s="29">
         <v>31</v>
@@ -16530,7 +17172,7 @@
       </c>
       <c r="Z301" s="29"/>
     </row>
-    <row r="302" ht="24.850000000000001">
+    <row r="302" ht="25.5">
       <c r="A302" s="29"/>
       <c r="C302" s="29">
         <v>31</v>
@@ -16564,7 +17206,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="303" ht="24.850000000000001">
+    <row r="303" ht="25.5">
       <c r="A303" s="29"/>
       <c r="C303" s="29">
         <v>31</v>
@@ -16594,7 +17236,7 @@
       </c>
       <c r="Z303" s="29"/>
     </row>
-    <row r="304" ht="36.450000000000003">
+    <row r="304" ht="38.25">
       <c r="A304" s="29"/>
       <c r="C304" s="29">
         <v>31</v>
@@ -16622,7 +17264,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="305" ht="24.850000000000001">
+    <row r="305" ht="25.5">
       <c r="A305" s="29"/>
       <c r="C305" s="29">
         <v>31</v>
@@ -16650,7 +17292,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="306" ht="24.850000000000001">
+    <row r="306" ht="25.5">
       <c r="A306" s="29"/>
       <c r="C306" s="29">
         <v>31</v>
@@ -16681,7 +17323,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="307" ht="24.850000000000001">
+    <row r="307" ht="25.5">
       <c r="A307" s="29"/>
       <c r="C307" s="29">
         <v>31</v>
@@ -16718,7 +17360,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="308" ht="24.850000000000001">
+    <row r="308" ht="25.5">
       <c r="A308" s="29"/>
       <c r="C308" s="29">
         <v>31</v>
@@ -16746,7 +17388,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="309" ht="24.850000000000001">
+    <row r="309" ht="25.5">
       <c r="A309" s="29"/>
       <c r="C309" s="29">
         <v>31</v>
@@ -16774,7 +17416,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="310" ht="24.850000000000001">
+    <row r="310" ht="25.5">
       <c r="A310" s="29"/>
       <c r="C310" s="29">
         <v>31</v>
@@ -16799,7 +17441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="311" ht="24.850000000000001">
+    <row r="311" ht="25.5">
       <c r="A311" s="29"/>
       <c r="C311" s="29">
         <v>31</v>
@@ -16824,7 +17466,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="312" ht="23.850000000000001">
+    <row r="312" ht="25.5">
       <c r="A312" s="29"/>
       <c r="C312" s="29">
         <v>31</v>
@@ -16848,10 +17490,10 @@
       <c r="O312" s="29" t="s">
         <v>1349</v>
       </c>
-      <c r="P312" s="38" t="s">
+      <c r="P312" s="36" t="s">
         <v>1350</v>
       </c>
-      <c r="Q312" s="38" t="s">
+      <c r="Q312" s="36" t="s">
         <v>1351</v>
       </c>
       <c r="R312" s="29" t="s">
@@ -16904,7 +17546,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="313" ht="24.850000000000001">
+    <row r="313" ht="25.5">
       <c r="A313" s="29"/>
       <c r="C313" s="29">
         <v>31</v>
@@ -16941,7 +17583,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="314" ht="24.850000000000001">
+    <row r="314" ht="25.5">
       <c r="A314" s="29"/>
       <c r="C314" s="29">
         <v>31</v>
@@ -16965,25 +17607,25 @@
       <c r="O314" s="29" t="s">
         <v>1362</v>
       </c>
-      <c r="Q314" s="35" t="s">
+      <c r="Q314" s="34" t="s">
         <v>1363</v>
       </c>
       <c r="R314" s="29" t="s">
         <v>1364</v>
       </c>
-      <c r="S314" s="37" t="s">
+      <c r="S314" s="35" t="s">
         <v>1364</v>
       </c>
-      <c r="T314" s="37" t="s">
+      <c r="T314" s="35" t="s">
         <v>1364</v>
       </c>
-      <c r="U314" s="37" t="s">
+      <c r="U314" s="35" t="s">
         <v>1364</v>
       </c>
-      <c r="V314" s="37" t="s">
+      <c r="V314" s="35" t="s">
         <v>1364</v>
       </c>
-      <c r="W314" s="37" t="s">
+      <c r="W314" s="35" t="s">
         <v>1364</v>
       </c>
       <c r="X314" s="29"/>
@@ -17012,7 +17654,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="315" ht="24.850000000000001">
+    <row r="315" ht="25.5">
       <c r="A315" s="29"/>
       <c r="C315" s="29">
         <v>31</v>
@@ -17033,7 +17675,7 @@
       <c r="N315" s="29" t="s">
         <v>279</v>
       </c>
-      <c r="Q315" s="35" t="s">
+      <c r="Q315" s="34" t="s">
         <v>1367</v>
       </c>
       <c r="W315" s="29"/>
@@ -17049,7 +17691,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="316" ht="94.5">
+    <row r="316" ht="25.5">
       <c r="A316" s="29"/>
       <c r="C316" s="29">
         <v>31</v>
@@ -17086,7 +17728,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="317" ht="94.5">
+    <row r="317" ht="25.5">
       <c r="A317" s="29"/>
       <c r="C317" s="29">
         <v>31</v>
@@ -17123,7 +17765,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="318" ht="48.049999999999997">
+    <row r="318" ht="25.5">
       <c r="A318" s="29"/>
       <c r="C318" s="29">
         <v>31</v>
@@ -17157,7 +17799,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="319" ht="36.450000000000003">
+    <row r="319" ht="51">
       <c r="A319" s="29"/>
       <c r="C319" s="29">
         <v>31</v>
@@ -17178,7 +17820,7 @@
       <c r="O319" s="29" t="s">
         <v>1376</v>
       </c>
-      <c r="Q319" s="35" t="s">
+      <c r="Q319" s="34" t="s">
         <v>1377</v>
       </c>
       <c r="W319" s="29"/>
@@ -17200,7 +17842,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="320" ht="24.850000000000001">
+    <row r="320" ht="25.5">
       <c r="A320" s="29"/>
       <c r="C320" s="29">
         <v>31</v>
@@ -17228,7 +17870,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="321" ht="24.850000000000001">
+    <row r="321" ht="25.5">
       <c r="A321" s="29"/>
       <c r="C321" s="29">
         <v>31</v>
@@ -17256,7 +17898,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="322" ht="24.850000000000001">
+    <row r="322" ht="25.5">
       <c r="A322" s="29"/>
       <c r="C322" s="29">
         <v>31</v>
@@ -17290,7 +17932,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="323" ht="24.850000000000001">
+    <row r="323" ht="25.5">
       <c r="A323" s="29"/>
       <c r="C323" s="29">
         <v>31</v>
@@ -17321,7 +17963,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="324" ht="24.850000000000001">
+    <row r="324" ht="25.5">
       <c r="A324" s="29"/>
       <c r="C324" s="29">
         <v>31</v>
@@ -17349,7 +17991,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="325" ht="24.850000000000001">
+    <row r="325" ht="25.5">
       <c r="A325" s="29"/>
       <c r="C325" s="29">
         <v>31</v>
@@ -17380,7 +18022,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="326" ht="24.850000000000001">
+    <row r="326" ht="25.5">
       <c r="A326" s="29"/>
       <c r="C326" s="29">
         <v>31</v>
@@ -17414,7 +18056,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="327" ht="24.850000000000001">
+    <row r="327" ht="25.5">
       <c r="A327" s="29"/>
       <c r="C327" s="29">
         <v>31</v>
@@ -17451,7 +18093,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="328" ht="24.850000000000001">
+    <row r="328" ht="25.5">
       <c r="A328" s="29"/>
       <c r="C328" s="29">
         <v>31</v>
@@ -17475,7 +18117,7 @@
       <c r="O328" s="29" t="s">
         <v>1395</v>
       </c>
-      <c r="P328" s="35" t="s">
+      <c r="P328" s="34" t="s">
         <v>1396</v>
       </c>
       <c r="W328" s="29"/>
@@ -17486,7 +18128,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="329" ht="24.850000000000001">
+    <row r="329" ht="25.5">
       <c r="A329" s="29"/>
       <c r="C329" s="29">
         <v>31</v>
@@ -17520,7 +18162,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="330" ht="24.850000000000001">
+    <row r="330" ht="25.5">
       <c r="A330" s="29"/>
       <c r="C330" s="29">
         <v>31</v>
@@ -17551,7 +18193,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="331" ht="12.75">
+    <row r="331" ht="25.5">
       <c r="A331" s="29"/>
       <c r="C331" s="29">
         <v>31</v>
@@ -17578,7 +18220,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="332" ht="12.75">
+    <row r="332" ht="25.5">
       <c r="A332" s="29"/>
       <c r="C332" s="29">
         <v>31</v>
@@ -17615,7 +18257,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="333" ht="12.75">
+    <row r="333" ht="25.5">
       <c r="A333" s="29"/>
       <c r="C333" s="29">
         <v>31</v>
@@ -17651,7 +18293,7 @@
       <c r="Z333" s="29"/>
       <c r="AV333" s="29"/>
     </row>
-    <row r="334" ht="12.75">
+    <row r="334" ht="25.5">
       <c r="A334" s="29"/>
       <c r="C334" s="29">
         <v>31</v>
@@ -17677,7 +18319,7 @@
       <c r="O334" s="29" t="s">
         <v>1409</v>
       </c>
-      <c r="P334" s="35" t="s">
+      <c r="P334" s="34" t="s">
         <v>1410</v>
       </c>
       <c r="R334" s="29"/>
@@ -17692,7 +18334,7 @@
       <c r="Z334" s="29"/>
       <c r="AV334" s="29"/>
     </row>
-    <row r="335" ht="12.75">
+    <row r="335" ht="25.5">
       <c r="A335" s="29"/>
       <c r="C335" s="29">
         <v>31</v>
@@ -17713,7 +18355,7 @@
       <c r="N335" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="P335" s="35" t="s">
+      <c r="P335" s="34" t="s">
         <v>1412</v>
       </c>
       <c r="R335" s="29"/>
@@ -17727,7 +18369,7 @@
       </c>
       <c r="AV335" s="29"/>
     </row>
-    <row r="336" ht="12.75">
+    <row r="336" ht="25.5">
       <c r="A336" s="29"/>
       <c r="C336" s="29">
         <v>31</v>
@@ -17764,7 +18406,7 @@
       </c>
       <c r="AV336" s="29"/>
     </row>
-    <row r="337" ht="12.75">
+    <row r="337" ht="25.5">
       <c r="A337" s="29"/>
       <c r="C337" s="29">
         <v>31</v>
@@ -17800,7 +18442,7 @@
       </c>
       <c r="AV337" s="29"/>
     </row>
-    <row r="338" ht="12.75">
+    <row r="338" ht="25.5">
       <c r="A338" s="29"/>
       <c r="C338" s="29">
         <v>31</v>
@@ -17833,7 +18475,7 @@
       </c>
       <c r="AV338" s="29"/>
     </row>
-    <row r="339" ht="12.75">
+    <row r="339" ht="25.5">
       <c r="A339" s="29"/>
       <c r="C339" s="29">
         <v>31</v>
@@ -17866,7 +18508,7 @@
       </c>
       <c r="AV339" s="29"/>
     </row>
-    <row r="340" ht="12.75">
+    <row r="340" ht="25.5">
       <c r="A340" s="29"/>
       <c r="C340" s="29">
         <v>31</v>
@@ -17899,7 +18541,7 @@
       </c>
       <c r="AV340" s="29"/>
     </row>
-    <row r="341" ht="12.75">
+    <row r="341" ht="25.5">
       <c r="A341" s="29"/>
       <c r="C341" s="29">
         <v>31</v>
@@ -17934,7 +18576,7 @@
       </c>
       <c r="AV341" s="29"/>
     </row>
-    <row r="342" ht="12.75">
+    <row r="342" ht="25.5">
       <c r="A342" s="29"/>
       <c r="C342" s="29">
         <v>31</v>
@@ -17955,7 +18597,7 @@
       <c r="N342" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="P342" s="35" t="s">
+      <c r="P342" s="34" t="s">
         <v>1424</v>
       </c>
       <c r="R342" s="29"/>
@@ -17970,7 +18612,7 @@
       </c>
       <c r="AV342" s="29"/>
     </row>
-    <row r="343" ht="12.75">
+    <row r="343" ht="25.5">
       <c r="A343" s="29"/>
       <c r="C343" s="29">
         <v>31</v>
@@ -18000,7 +18642,7 @@
       </c>
       <c r="AV343" s="29"/>
     </row>
-    <row r="344" ht="12.75">
+    <row r="344" ht="51">
       <c r="A344" s="29"/>
       <c r="C344" s="29">
         <v>31</v>
@@ -18024,16 +18666,16 @@
       <c r="O344" s="29" t="s">
         <v>1428</v>
       </c>
-      <c r="P344" s="35" t="s">
+      <c r="P344" s="34" t="s">
         <v>1429</v>
       </c>
       <c r="R344" s="29"/>
       <c r="S344" s="29"/>
       <c r="T344" s="29"/>
-      <c r="U344" s="37" t="s">
+      <c r="U344" s="35" t="s">
         <v>1430</v>
       </c>
-      <c r="V344" s="37" t="s">
+      <c r="V344" s="35" t="s">
         <v>1430</v>
       </c>
       <c r="W344" s="29"/>
@@ -18050,7 +18692,7 @@
       </c>
       <c r="AV344" s="29"/>
     </row>
-    <row r="345" ht="12.75">
+    <row r="345" ht="25.5">
       <c r="A345" s="29"/>
       <c r="C345" s="29">
         <v>31</v>
@@ -18074,7 +18716,7 @@
       <c r="N345" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="Q345" s="35" t="s">
+      <c r="Q345" s="34" t="s">
         <v>1433</v>
       </c>
       <c r="R345" s="29"/>
@@ -18096,7 +18738,7 @@
       </c>
       <c r="AV345" s="29"/>
     </row>
-    <row r="346" ht="12.75">
+    <row r="346" ht="25.5">
       <c r="A346" s="29"/>
       <c r="C346" s="29">
         <v>31</v>
@@ -18134,7 +18776,7 @@
       </c>
       <c r="AV346" s="29"/>
     </row>
-    <row r="347" ht="12.75">
+    <row r="347" ht="25.5">
       <c r="A347" s="29"/>
       <c r="C347" s="29">
         <v>31</v>
@@ -18169,7 +18811,7 @@
       <c r="Z347" s="29"/>
       <c r="AV347" s="29"/>
     </row>
-    <row r="348" ht="12.75">
+    <row r="348" ht="25.5">
       <c r="A348" s="29"/>
       <c r="C348" s="29">
         <v>31</v>
@@ -18188,7 +18830,7 @@
       <c r="N348" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="P348" s="35" t="s">
+      <c r="P348" s="34" t="s">
         <v>1438</v>
       </c>
       <c r="R348" s="29"/>
@@ -18202,7 +18844,7 @@
       </c>
       <c r="AV348" s="29"/>
     </row>
-    <row r="349" ht="12.75">
+    <row r="349" ht="25.5">
       <c r="A349" s="29"/>
       <c r="C349" s="29">
         <v>31</v>
@@ -18223,7 +18865,7 @@
         <v>784</v>
       </c>
       <c r="P349" s="29"/>
-      <c r="Q349" s="35" t="s">
+      <c r="Q349" s="34" t="s">
         <v>1440</v>
       </c>
       <c r="R349" s="29"/>
@@ -18238,7 +18880,7 @@
       <c r="Z349" s="29"/>
       <c r="AV349" s="29"/>
     </row>
-    <row r="350" ht="12.75">
+    <row r="350" ht="25.5">
       <c r="A350" s="29"/>
       <c r="C350" s="29">
         <v>31</v>
@@ -18276,7 +18918,7 @@
       </c>
       <c r="AV350" s="29"/>
     </row>
-    <row r="351" ht="12.75">
+    <row r="351" ht="25.5">
       <c r="A351" s="29"/>
       <c r="C351" s="29">
         <v>31</v>
@@ -18314,7 +18956,7 @@
       </c>
       <c r="AV351" s="29"/>
     </row>
-    <row r="352" ht="12.75">
+    <row r="352" ht="38.25">
       <c r="A352" s="29"/>
       <c r="C352" s="29">
         <v>31</v>
@@ -18352,7 +18994,7 @@
       </c>
       <c r="AV352" s="29"/>
     </row>
-    <row r="353" ht="12.75">
+    <row r="353" ht="25.5">
       <c r="A353" s="29"/>
       <c r="C353" s="29">
         <v>31</v>
@@ -18379,7 +19021,7 @@
         <v>1452</v>
       </c>
       <c r="P353" s="29"/>
-      <c r="Q353" s="35" t="s">
+      <c r="Q353" s="34" t="s">
         <v>1453</v>
       </c>
       <c r="R353" s="29"/>
@@ -18406,7 +19048,7 @@
       </c>
       <c r="AV353" s="29"/>
     </row>
-    <row r="354" ht="12.75">
+    <row r="354" ht="25.5">
       <c r="A354" s="29"/>
       <c r="C354" s="29">
         <v>31</v>
@@ -18454,7 +19096,7 @@
       </c>
       <c r="AV354" s="29"/>
     </row>
-    <row r="355" ht="12.75">
+    <row r="355" ht="51">
       <c r="A355" s="29"/>
       <c r="C355" s="29">
         <v>31</v>
@@ -18479,13 +19121,13 @@
       <c r="O355" s="29" t="s">
         <v>1457</v>
       </c>
-      <c r="P355" s="35" t="s">
+      <c r="P355" s="34" t="s">
         <v>1429</v>
       </c>
-      <c r="S355" s="37" t="s">
+      <c r="S355" s="35" t="s">
         <v>1458</v>
       </c>
-      <c r="T355" s="37" t="s">
+      <c r="T355" s="35" t="s">
         <v>1458</v>
       </c>
       <c r="W355" s="29"/>
@@ -18495,7 +19137,7 @@
       <c r="Z355" s="29"/>
       <c r="AV355" s="29"/>
     </row>
-    <row r="356" ht="12.75">
+    <row r="356" ht="25.5">
       <c r="A356" s="29"/>
       <c r="C356" s="29">
         <v>31</v>
@@ -18530,7 +19172,7 @@
       <c r="Z356" s="29"/>
       <c r="AV356" s="29"/>
     </row>
-    <row r="357" ht="12.75">
+    <row r="357" ht="25.5">
       <c r="A357" s="29"/>
       <c r="C357" s="29">
         <v>31</v>
@@ -18557,7 +19199,7 @@
       <c r="O357" s="29" t="s">
         <v>1462</v>
       </c>
-      <c r="P357" s="35" t="s">
+      <c r="P357" s="34" t="s">
         <v>1463</v>
       </c>
       <c r="R357" s="29"/>
@@ -18573,7 +19215,7 @@
       <c r="Z357" s="29"/>
       <c r="AV357" s="29"/>
     </row>
-    <row r="358" ht="12.75">
+    <row r="358" ht="25.5">
       <c r="A358" s="29"/>
       <c r="C358" s="29">
         <v>31</v>
@@ -18601,7 +19243,7 @@
       <c r="Z358" s="29"/>
       <c r="AV358" s="29"/>
     </row>
-    <row r="359" ht="12.75">
+    <row r="359" ht="25.5">
       <c r="A359" s="29"/>
       <c r="C359" s="29">
         <v>31</v>
@@ -18632,7 +19274,7 @@
       <c r="Z359" s="29"/>
       <c r="AV359" s="29"/>
     </row>
-    <row r="360" ht="12.75">
+    <row r="360" ht="25.5">
       <c r="A360" s="29"/>
       <c r="C360" s="29">
         <v>31</v>
@@ -18664,7 +19306,7 @@
       <c r="Z360" s="29"/>
       <c r="AV360" s="29"/>
     </row>
-    <row r="361" ht="12.75">
+    <row r="361" ht="25.5">
       <c r="A361" s="29"/>
       <c r="C361" s="29">
         <v>31</v>
@@ -18688,7 +19330,7 @@
       <c r="O361" s="29" t="s">
         <v>1470</v>
       </c>
-      <c r="P361" s="35" t="s">
+      <c r="P361" s="34" t="s">
         <v>1471</v>
       </c>
       <c r="Y361" s="29" t="s">
@@ -18696,7 +19338,7 @@
       </c>
       <c r="AV361" s="29"/>
     </row>
-    <row r="362" ht="12.75">
+    <row r="362" ht="25.5">
       <c r="A362" s="29"/>
       <c r="C362" s="29">
         <v>31</v>
@@ -18727,7 +19369,7 @@
       <c r="Z362" s="29"/>
       <c r="AV362" s="29"/>
     </row>
-    <row r="363" ht="12.75">
+    <row r="363" ht="25.5">
       <c r="A363" s="29"/>
       <c r="C363" s="29">
         <v>31</v>
@@ -18749,7 +19391,7 @@
       </c>
       <c r="Z363" s="29"/>
     </row>
-    <row r="364" ht="12.75">
+    <row r="364" ht="25.5">
       <c r="A364" s="29"/>
       <c r="C364" s="29">
         <v>31</v>
@@ -18782,7 +19424,7 @@
       <c r="Z364" s="29"/>
       <c r="AV364" s="29"/>
     </row>
-    <row r="365" ht="12.75">
+    <row r="365" ht="25.5">
       <c r="A365" s="29"/>
       <c r="C365" s="29">
         <v>31</v>
@@ -18817,7 +19459,7 @@
       <c r="Z365" s="29"/>
       <c r="AV365" s="29"/>
     </row>
-    <row r="366" ht="12.75">
+    <row r="366" ht="25.5">
       <c r="A366" s="29"/>
       <c r="C366" s="29">
         <v>31</v>
@@ -18854,7 +19496,7 @@
       <c r="Z366" s="29"/>
       <c r="AV366" s="29"/>
     </row>
-    <row r="367" ht="12.75">
+    <row r="367" ht="25.5">
       <c r="A367" s="29"/>
       <c r="C367" s="29">
         <v>31</v>
@@ -18880,7 +19522,7 @@
       </c>
       <c r="AV367" s="29"/>
     </row>
-    <row r="368" ht="12.75">
+    <row r="368" ht="25.5">
       <c r="A368" s="29"/>
       <c r="C368" s="29">
         <v>31</v>
@@ -18900,7 +19542,7 @@
         <v>257</v>
       </c>
       <c r="O368" s="29"/>
-      <c r="P368" s="35" t="s">
+      <c r="P368" s="34" t="s">
         <v>1477</v>
       </c>
       <c r="Y368" s="29" t="s">
@@ -18908,7 +19550,7 @@
       </c>
       <c r="AV368" s="29"/>
     </row>
-    <row r="369" ht="12.75">
+    <row r="369" ht="25.5">
       <c r="A369" s="29"/>
       <c r="C369" s="29">
         <v>31</v>
@@ -18927,7 +19569,7 @@
       <c r="N369" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="P369" s="35" t="s">
+      <c r="P369" s="34" t="s">
         <v>1479</v>
       </c>
       <c r="Y369" s="29" t="s">
@@ -18935,7 +19577,7 @@
       </c>
       <c r="AV369" s="29"/>
     </row>
-    <row r="370" ht="12.75">
+    <row r="370" ht="25.5">
       <c r="A370" s="29"/>
       <c r="C370" s="29">
         <v>31</v>
@@ -18963,7 +19605,7 @@
       </c>
       <c r="AV370" s="29"/>
     </row>
-    <row r="371" ht="12.75">
+    <row r="371" ht="25.5">
       <c r="A371" s="29"/>
       <c r="C371" s="29">
         <v>31</v>
@@ -18991,7 +19633,7 @@
       </c>
       <c r="AV371" s="29"/>
     </row>
-    <row r="372" ht="12.75">
+    <row r="372" ht="25.5">
       <c r="A372" s="29"/>
       <c r="C372" s="29">
         <v>31</v>
@@ -19016,7 +19658,7 @@
       <c r="Z372" s="29"/>
       <c r="AV372" s="29"/>
     </row>
-    <row r="373" ht="12.75">
+    <row r="373" ht="25.5">
       <c r="A373" s="29"/>
       <c r="C373" s="29">
         <v>31</v>
@@ -19036,7 +19678,7 @@
         <v>279</v>
       </c>
       <c r="O373" s="29"/>
-      <c r="P373" s="35" t="s">
+      <c r="P373" s="34" t="s">
         <v>1484</v>
       </c>
       <c r="Y373" s="29" t="s">
@@ -19044,7 +19686,7 @@
       </c>
       <c r="AV373" s="29"/>
     </row>
-    <row r="374" ht="12.75">
+    <row r="374" ht="25.5">
       <c r="A374" s="29"/>
       <c r="C374" s="29">
         <v>31</v>
@@ -19063,7 +19705,7 @@
         <v>279</v>
       </c>
       <c r="O374" s="29"/>
-      <c r="P374" s="35" t="s">
+      <c r="P374" s="34" t="s">
         <v>1486</v>
       </c>
       <c r="Y374" s="29" t="s">
@@ -19071,7 +19713,7 @@
       </c>
       <c r="AV374" s="29"/>
     </row>
-    <row r="375" ht="12.75">
+    <row r="375" ht="25.5">
       <c r="A375" s="29"/>
       <c r="C375" s="29">
         <v>31</v>
@@ -19091,7 +19733,7 @@
         <v>279</v>
       </c>
       <c r="O375" s="29"/>
-      <c r="P375" s="35" t="s">
+      <c r="P375" s="34" t="s">
         <v>1487</v>
       </c>
       <c r="Y375" s="29" t="s">
@@ -19099,7 +19741,7 @@
       </c>
       <c r="AV375" s="29"/>
     </row>
-    <row r="376" ht="12.75">
+    <row r="376" ht="25.5">
       <c r="A376" s="29"/>
       <c r="C376" s="29">
         <v>31</v>
@@ -19119,7 +19761,7 @@
         <v>279</v>
       </c>
       <c r="O376" s="29"/>
-      <c r="P376" s="35" t="s">
+      <c r="P376" s="34" t="s">
         <v>1489</v>
       </c>
       <c r="Y376" s="29" t="s">
@@ -19127,7 +19769,7 @@
       </c>
       <c r="AV376" s="29"/>
     </row>
-    <row r="377" ht="12.75">
+    <row r="377" ht="38.25">
       <c r="A377" s="29"/>
       <c r="C377" s="29">
         <v>31</v>
@@ -19147,7 +19789,7 @@
         <v>279</v>
       </c>
       <c r="O377" s="29"/>
-      <c r="P377" s="35" t="s">
+      <c r="P377" s="34" t="s">
         <v>1491</v>
       </c>
       <c r="Y377" s="29" t="s">
@@ -19155,7 +19797,7 @@
       </c>
       <c r="AV377" s="29"/>
     </row>
-    <row r="378" ht="12.75">
+    <row r="378" ht="25.5">
       <c r="A378" s="29"/>
       <c r="C378" s="29">
         <v>31</v>
@@ -19175,7 +19817,7 @@
         <v>279</v>
       </c>
       <c r="O378" s="29"/>
-      <c r="P378" s="35" t="s">
+      <c r="P378" s="34" t="s">
         <v>1493</v>
       </c>
       <c r="Y378" s="29" t="s">
@@ -19183,7 +19825,7 @@
       </c>
       <c r="AV378" s="29"/>
     </row>
-    <row r="379" ht="12.75">
+    <row r="379" ht="25.5">
       <c r="A379" s="29"/>
       <c r="C379" s="29">
         <v>31</v>
@@ -19211,7 +19853,7 @@
       </c>
       <c r="AV379" s="29"/>
     </row>
-    <row r="380" ht="12.75">
+    <row r="380" ht="25.5">
       <c r="A380" s="29"/>
       <c r="C380" s="29">
         <v>31</v>
@@ -19235,7 +19877,7 @@
       <c r="Z380" s="29"/>
       <c r="AV380" s="29"/>
     </row>
-    <row r="381" ht="12.75">
+    <row r="381" ht="25.5">
       <c r="A381" s="29"/>
       <c r="C381" s="29">
         <v>31</v>
@@ -19259,7 +19901,7 @@
       <c r="Z381" s="29"/>
       <c r="AV381" s="29"/>
     </row>
-    <row r="382" ht="12.75">
+    <row r="382" ht="25.5">
       <c r="A382" s="29"/>
       <c r="C382" s="29">
         <v>31</v>
@@ -19286,7 +19928,7 @@
       <c r="Z382" s="29"/>
       <c r="AV382" s="29"/>
     </row>
-    <row r="383" ht="12.75">
+    <row r="383" ht="25.5">
       <c r="A383" s="29"/>
       <c r="C383" s="29">
         <v>31</v>
@@ -19308,7 +19950,7 @@
       <c r="Z383" s="29"/>
       <c r="AV383" s="29"/>
     </row>
-    <row r="384" ht="12.75">
+    <row r="384" ht="25.5">
       <c r="A384" s="29"/>
       <c r="C384" s="29">
         <v>31</v>
@@ -19331,7 +19973,7 @@
       <c r="Z384" s="29"/>
       <c r="AV384" s="29"/>
     </row>
-    <row r="385" ht="12.75">
+    <row r="385" ht="25.5">
       <c r="A385" s="29"/>
       <c r="C385" s="29">
         <v>31</v>
@@ -19356,7 +19998,7 @@
       <c r="Z385" s="29"/>
       <c r="AV385" s="29"/>
     </row>
-    <row r="386" ht="12.75">
+    <row r="386" ht="25.5">
       <c r="A386" s="29"/>
       <c r="C386" s="29">
         <v>31</v>
@@ -19378,7 +20020,7 @@
       <c r="Z386" s="29"/>
       <c r="AV386" s="29"/>
     </row>
-    <row r="387" ht="12.75">
+    <row r="387" ht="25.5">
       <c r="A387" s="29"/>
       <c r="C387" s="29">
         <v>31</v>
@@ -19401,7 +20043,7 @@
       </c>
       <c r="AV387" s="29"/>
     </row>
-    <row r="388" ht="12.75">
+    <row r="388" ht="25.5">
       <c r="A388" s="29"/>
       <c r="C388" s="29">
         <v>31</v>
@@ -19426,7 +20068,7 @@
       </c>
       <c r="AV388" s="29"/>
     </row>
-    <row r="389" ht="12.75">
+    <row r="389" ht="25.5">
       <c r="A389" s="29"/>
       <c r="C389" s="29">
         <v>31</v>
@@ -19451,7 +20093,7 @@
       </c>
       <c r="AV389" s="29"/>
     </row>
-    <row r="390" ht="12.75">
+    <row r="390" ht="38.25">
       <c r="A390" s="29"/>
       <c r="C390" s="29">
         <v>31</v>
@@ -19473,10 +20115,10 @@
       <c r="O390" s="29" t="s">
         <v>1509</v>
       </c>
-      <c r="P390" s="35" t="s">
+      <c r="P390" s="34" t="s">
         <v>1510</v>
       </c>
-      <c r="Q390" s="35" t="s">
+      <c r="Q390" s="34" t="s">
         <v>1511</v>
       </c>
       <c r="Y390" s="29" t="s">
@@ -19837,7 +20479,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="402" ht="12.75">
+    <row r="402" ht="25.5">
       <c r="A402" s="29"/>
       <c r="C402" s="29">
         <v>31</v>
@@ -19863,10 +20505,10 @@
       <c r="O402" s="29" t="s">
         <v>1562</v>
       </c>
-      <c r="P402" s="35" t="s">
+      <c r="P402" s="34" t="s">
         <v>1563</v>
       </c>
-      <c r="Q402" s="35" t="s">
+      <c r="Q402" s="34" t="s">
         <v>1564</v>
       </c>
       <c r="Y402" s="29" t="s">
@@ -19874,7 +20516,7 @@
       </c>
       <c r="AV402" s="29"/>
     </row>
-    <row r="403" ht="12.75">
+    <row r="403" ht="25.5">
       <c r="A403" s="29"/>
       <c r="C403" s="29">
         <v>31</v>
@@ -19954,7 +20596,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="405" ht="12.75">
+    <row r="405" ht="25.5">
       <c r="A405" s="29"/>
       <c r="C405" s="29">
         <v>65</v>
@@ -19973,7 +20615,7 @@
       <c r="L405" s="29"/>
       <c r="M405" s="29"/>
       <c r="O405" s="29"/>
-      <c r="P405" s="35" t="s">
+      <c r="P405" s="34" t="s">
         <v>1575</v>
       </c>
       <c r="Y405" s="29" t="s">
@@ -20123,7 +20765,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="411" ht="12.75">
+    <row r="411" ht="51">
       <c r="A411" s="29"/>
       <c r="C411" s="29">
         <v>31</v>
@@ -20148,7 +20790,7 @@
       </c>
       <c r="O411" s="29"/>
       <c r="P411" s="29"/>
-      <c r="Q411" s="35" t="s">
+      <c r="Q411" s="34" t="s">
         <v>1600</v>
       </c>
       <c r="Y411" s="29" t="s">
@@ -20164,7 +20806,7 @@
       <c r="AD411" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="AE411" s="36"/>
+      <c r="AE411" s="29"/>
       <c r="AV411" s="29"/>
     </row>
     <row r="412" ht="12.75">
@@ -20199,7 +20841,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="413" ht="12.75">
+    <row r="413" ht="25.5">
       <c r="A413" s="29"/>
       <c r="C413" s="29">
         <v>65</v>
@@ -20226,7 +20868,7 @@
         <v>1610</v>
       </c>
       <c r="P413" s="29"/>
-      <c r="Q413" s="35" t="s">
+      <c r="Q413" s="34" t="s">
         <v>1611</v>
       </c>
       <c r="W413" s="29"/>
@@ -20298,7 +20940,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="415" ht="12.75">
+    <row r="415" ht="25.5">
       <c r="A415" s="29"/>
       <c r="C415" s="29">
         <v>32</v>
@@ -20323,7 +20965,7 @@
       </c>
       <c r="O415" s="29"/>
       <c r="P415" s="29"/>
-      <c r="Q415" s="35" t="s">
+      <c r="Q415" s="34" t="s">
         <v>1620</v>
       </c>
       <c r="W415" s="29"/>
@@ -20449,7 +21091,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="418" ht="12.75">
+    <row r="418" ht="25.5">
       <c r="A418" s="29"/>
       <c r="C418" s="29">
         <v>31</v>
@@ -20472,7 +21114,7 @@
       <c r="Z418" s="29"/>
       <c r="AV418" s="29"/>
     </row>
-    <row r="419" ht="12.75">
+    <row r="419" ht="25.5">
       <c r="A419" s="29"/>
       <c r="C419" s="29">
         <v>31</v>
@@ -20497,7 +21139,7 @@
       </c>
       <c r="AV419" s="29"/>
     </row>
-    <row r="420" ht="12.75">
+    <row r="420" ht="25.5">
       <c r="A420" s="29"/>
       <c r="C420" s="29">
         <v>31</v>
@@ -20516,7 +21158,7 @@
       </c>
       <c r="O420" s="29"/>
       <c r="P420" s="29"/>
-      <c r="Q420" s="35" t="s">
+      <c r="Q420" s="34" t="s">
         <v>1637</v>
       </c>
       <c r="Y420" s="29" t="s">
@@ -20525,7 +21167,7 @@
       <c r="Z420" s="29"/>
       <c r="AV420" s="29"/>
     </row>
-    <row r="421" ht="12.75">
+    <row r="421" ht="25.5">
       <c r="A421" s="29"/>
       <c r="C421" s="29">
         <v>31</v>
@@ -20546,7 +21188,7 @@
       <c r="Z421" s="29"/>
       <c r="AV421" s="29"/>
     </row>
-    <row r="422" ht="12.75">
+    <row r="422" ht="25.5">
       <c r="A422" s="29"/>
       <c r="C422" s="29">
         <v>31</v>
@@ -20566,7 +21208,7 @@
       <c r="Z422" s="29"/>
       <c r="AV422" s="29"/>
     </row>
-    <row r="423" ht="12.75">
+    <row r="423" ht="25.5">
       <c r="A423" s="29"/>
       <c r="C423" s="29">
         <v>31</v>
@@ -20582,7 +21224,7 @@
         <v>784</v>
       </c>
       <c r="O423" s="29"/>
-      <c r="P423" s="35" t="s">
+      <c r="P423" s="34" t="s">
         <v>1641</v>
       </c>
       <c r="Y423" s="29" t="s">
@@ -20590,7 +21232,7 @@
       </c>
       <c r="AV423" s="29"/>
     </row>
-    <row r="424" ht="12.75">
+    <row r="424" ht="25.5">
       <c r="A424" s="29"/>
       <c r="C424" s="29">
         <v>31</v>
@@ -20606,7 +21248,7 @@
         <v>257</v>
       </c>
       <c r="O424" s="29"/>
-      <c r="P424" s="35" t="s">
+      <c r="P424" s="34" t="s">
         <v>1643</v>
       </c>
       <c r="Y424" s="29" t="s">
@@ -20614,7 +21256,7 @@
       </c>
       <c r="AV424" s="29"/>
     </row>
-    <row r="425" ht="12.75">
+    <row r="425" ht="25.5">
       <c r="A425" s="29"/>
       <c r="C425" s="29">
         <v>31</v>
@@ -20633,7 +21275,7 @@
       </c>
       <c r="AV425" s="29"/>
     </row>
-    <row r="426" ht="12.75">
+    <row r="426" ht="25.5">
       <c r="A426" s="29"/>
       <c r="C426" s="29">
         <v>11</v>
@@ -20655,7 +21297,7 @@
       <c r="Z426" s="29"/>
       <c r="AV426" s="29"/>
     </row>
-    <row r="427" ht="12.75">
+    <row r="427" ht="38.25">
       <c r="A427" s="29"/>
       <c r="C427" s="29">
         <v>11</v>
@@ -20677,7 +21319,7 @@
       </c>
       <c r="AV427" s="29"/>
     </row>
-    <row r="428" ht="12.75">
+    <row r="428" ht="25.5">
       <c r="A428" s="29"/>
       <c r="C428" s="29">
         <v>11</v>
@@ -20699,7 +21341,7 @@
       </c>
       <c r="AV428" s="29"/>
     </row>
-    <row r="429" ht="12.75">
+    <row r="429" ht="25.5">
       <c r="A429" s="29"/>
       <c r="C429" s="29">
         <v>11</v>
@@ -20711,7 +21353,7 @@
       <c r="F429" s="29"/>
       <c r="G429" s="29"/>
       <c r="L429" s="29"/>
-      <c r="N429" s="37" t="s">
+      <c r="N429" s="35" t="s">
         <v>412</v>
       </c>
       <c r="O429" s="29"/>
@@ -20723,7 +21365,7 @@
       </c>
       <c r="AV429" s="29"/>
     </row>
-    <row r="430" ht="12.75">
+    <row r="430" ht="25.5">
       <c r="A430" s="29"/>
       <c r="C430" s="29">
         <v>11</v>
@@ -20735,7 +21377,7 @@
       <c r="F430" s="29"/>
       <c r="G430" s="29"/>
       <c r="L430" s="29"/>
-      <c r="N430" s="37" t="s">
+      <c r="N430" s="35" t="s">
         <v>412</v>
       </c>
       <c r="O430" s="29"/>
@@ -20747,7 +21389,7 @@
       </c>
       <c r="AV430" s="29"/>
     </row>
-    <row r="431" ht="12.75">
+    <row r="431" ht="25.5">
       <c r="A431" s="29"/>
       <c r="C431" s="29">
         <v>11</v>
@@ -20759,7 +21401,7 @@
       <c r="F431" s="29"/>
       <c r="G431" s="29"/>
       <c r="L431" s="29"/>
-      <c r="N431" s="37" t="s">
+      <c r="N431" s="35" t="s">
         <v>412</v>
       </c>
       <c r="O431" s="29"/>
@@ -20771,7 +21413,7 @@
       </c>
       <c r="AV431" s="29"/>
     </row>
-    <row r="432" ht="12.75">
+    <row r="432" ht="25.5">
       <c r="A432" s="29"/>
       <c r="C432" s="29">
         <v>11</v>
@@ -20783,7 +21425,7 @@
       <c r="F432" s="29"/>
       <c r="G432" s="29"/>
       <c r="L432" s="29"/>
-      <c r="N432" s="37" t="s">
+      <c r="N432" s="35" t="s">
         <v>412</v>
       </c>
       <c r="O432" s="29"/>
@@ -20795,7 +21437,7 @@
       </c>
       <c r="AV432" s="29"/>
     </row>
-    <row r="433" ht="12.75">
+    <row r="433" ht="25.5">
       <c r="A433" s="29"/>
       <c r="C433" s="29">
         <v>11</v>
@@ -20821,7 +21463,7 @@
       </c>
       <c r="AV433" s="29"/>
     </row>
-    <row r="434" ht="12.75">
+    <row r="434" ht="38.25">
       <c r="A434" s="29"/>
       <c r="C434" s="29">
         <v>11</v>
@@ -20846,7 +21488,7 @@
       </c>
       <c r="AV434" s="29"/>
     </row>
-    <row r="435" ht="12.75">
+    <row r="435" ht="25.5">
       <c r="A435" s="29"/>
       <c r="C435" s="29">
         <v>11</v>
@@ -20869,7 +21511,7 @@
       </c>
       <c r="AV435" s="29"/>
     </row>
-    <row r="436" ht="12.75">
+    <row r="436" ht="25.5">
       <c r="A436" s="29"/>
       <c r="C436" s="29">
         <v>11</v>
@@ -20890,7 +21532,7 @@
       </c>
       <c r="AV436" s="29"/>
     </row>
-    <row r="437" ht="12.75">
+    <row r="437" ht="25.5">
       <c r="A437" s="29"/>
       <c r="C437" s="29">
         <v>11</v>
@@ -20915,7 +21557,7 @@
       </c>
       <c r="AV437" s="29"/>
     </row>
-    <row r="438" ht="12.75">
+    <row r="438" ht="25.5">
       <c r="A438" s="29"/>
       <c r="C438" s="29">
         <v>11</v>
@@ -20935,7 +21577,7 @@
       </c>
       <c r="AV438" s="29"/>
     </row>
-    <row r="439" ht="12.75">
+    <row r="439" ht="25.5">
       <c r="A439" s="29"/>
       <c r="C439" s="29">
         <v>11</v>
@@ -20957,7 +21599,7 @@
       </c>
       <c r="AV439" s="29"/>
     </row>
-    <row r="440" ht="12.75">
+    <row r="440" ht="25.5">
       <c r="A440" s="29"/>
       <c r="C440" s="29">
         <v>11</v>
@@ -20979,7 +21621,7 @@
       </c>
       <c r="AV440" s="29"/>
     </row>
-    <row r="441" ht="12.75">
+    <row r="441" ht="38.25">
       <c r="A441" s="29"/>
       <c r="C441" s="29">
         <v>11</v>
@@ -21005,7 +21647,7 @@
       </c>
       <c r="AV441" s="29"/>
     </row>
-    <row r="442" ht="12.75">
+    <row r="442" ht="25.5">
       <c r="A442" s="29"/>
       <c r="C442" s="29">
         <v>11</v>
@@ -21027,7 +21669,7 @@
       </c>
       <c r="AV442" s="29"/>
     </row>
-    <row r="443" ht="12.75">
+    <row r="443" ht="25.5">
       <c r="A443" s="29"/>
       <c r="C443" s="29">
         <v>11</v>
@@ -21052,7 +21694,7 @@
       </c>
       <c r="AV443" s="29"/>
     </row>
-    <row r="444" ht="12.75">
+    <row r="444" ht="25.5">
       <c r="A444" s="29"/>
       <c r="C444" s="29">
         <v>11</v>
@@ -21078,7 +21720,7 @@
       </c>
       <c r="AV444" s="29"/>
     </row>
-    <row r="445" ht="12.75">
+    <row r="445" ht="38.25">
       <c r="A445" s="29"/>
       <c r="C445" s="29">
         <v>11</v>
@@ -21104,7 +21746,7 @@
       </c>
       <c r="AV445" s="29"/>
     </row>
-    <row r="446" ht="12.75">
+    <row r="446" ht="25.5">
       <c r="A446" s="29"/>
       <c r="C446" s="29">
         <v>11</v>
@@ -21125,7 +21767,7 @@
       </c>
       <c r="AV446" s="29"/>
     </row>
-    <row r="447" ht="12.75">
+    <row r="447" ht="25.5">
       <c r="A447" s="29"/>
       <c r="C447" s="29">
         <v>11</v>
@@ -21148,7 +21790,7 @@
       </c>
       <c r="AV447" s="29"/>
     </row>
-    <row r="448" ht="12.75">
+    <row r="448" ht="25.5">
       <c r="A448" s="29"/>
       <c r="C448" s="29">
         <v>11</v>
@@ -21174,7 +21816,7 @@
       </c>
       <c r="AV448" s="29"/>
     </row>
-    <row r="449" ht="12.75">
+    <row r="449" ht="25.5">
       <c r="A449" s="29"/>
       <c r="C449" s="29">
         <v>11</v>
@@ -21197,7 +21839,7 @@
       </c>
       <c r="AV449" s="29"/>
     </row>
-    <row r="450" ht="12.75">
+    <row r="450" ht="25.5">
       <c r="A450" s="29"/>
       <c r="C450" s="29">
         <v>11</v>
@@ -21219,7 +21861,7 @@
       </c>
       <c r="AV450" s="29"/>
     </row>
-    <row r="451" ht="12.75">
+    <row r="451" ht="25.5">
       <c r="A451" s="29"/>
       <c r="C451" s="29">
         <v>11</v>
@@ -21241,7 +21883,7 @@
       </c>
       <c r="AV451" s="29"/>
     </row>
-    <row r="452" ht="12.75">
+    <row r="452" ht="25.5">
       <c r="A452" s="29"/>
       <c r="C452" s="29">
         <v>11</v>
@@ -21263,7 +21905,7 @@
       </c>
       <c r="AV452" s="29"/>
     </row>
-    <row r="453" ht="12.75">
+    <row r="453" ht="25.5">
       <c r="A453" s="29"/>
       <c r="C453" s="29">
         <v>11</v>
@@ -21285,7 +21927,7 @@
       </c>
       <c r="AV453" s="29"/>
     </row>
-    <row r="454" ht="12.75">
+    <row r="454" ht="25.5">
       <c r="A454" s="29"/>
       <c r="C454" s="29">
         <v>11</v>
@@ -21308,7 +21950,7 @@
       </c>
       <c r="AV454" s="29"/>
     </row>
-    <row r="455" ht="12.75">
+    <row r="455" ht="25.5">
       <c r="A455" s="29"/>
       <c r="C455" s="29">
         <v>11</v>
@@ -21334,7 +21976,7 @@
       </c>
       <c r="AV455" s="29"/>
     </row>
-    <row r="456" ht="12.75">
+    <row r="456" ht="25.5">
       <c r="A456" s="29"/>
       <c r="C456" s="29">
         <v>11</v>
@@ -21359,7 +22001,7 @@
       </c>
       <c r="AV456" s="29"/>
     </row>
-    <row r="457" ht="12.75">
+    <row r="457" ht="25.5">
       <c r="A457" s="29"/>
       <c r="C457" s="29">
         <v>11</v>
@@ -21381,7 +22023,7 @@
       </c>
       <c r="AV457" s="29"/>
     </row>
-    <row r="458" ht="12.75">
+    <row r="458" ht="25.5">
       <c r="A458" s="29"/>
       <c r="C458" s="29">
         <v>11</v>
@@ -21403,7 +22045,7 @@
       </c>
       <c r="AV458" s="29"/>
     </row>
-    <row r="459" ht="12.75">
+    <row r="459" ht="25.5">
       <c r="A459" s="29"/>
       <c r="C459" s="29">
         <v>11</v>
@@ -21420,13 +22062,13 @@
       <c r="P459" s="29" t="s">
         <v>1708</v>
       </c>
-      <c r="S459" s="37" t="s">
+      <c r="S459" s="35" t="s">
         <v>1709</v>
       </c>
-      <c r="U459" s="37" t="s">
+      <c r="U459" s="35" t="s">
         <v>1710</v>
       </c>
-      <c r="W459" s="37" t="s">
+      <c r="W459" s="35" t="s">
         <v>1711</v>
       </c>
       <c r="Y459" s="29" t="s">
@@ -21434,7 +22076,7 @@
       </c>
       <c r="AV459" s="29"/>
     </row>
-    <row r="460" ht="12.75">
+    <row r="460" ht="25.5">
       <c r="A460" s="29"/>
       <c r="C460" s="29">
         <v>11</v>
@@ -21457,7 +22099,7 @@
       </c>
       <c r="AV460" s="29"/>
     </row>
-    <row r="461" ht="12.75">
+    <row r="461" ht="25.5">
       <c r="A461" s="29"/>
       <c r="C461" s="29">
         <v>11</v>
@@ -21483,7 +22125,7 @@
       </c>
       <c r="AV461" s="29"/>
     </row>
-    <row r="462" ht="12.75">
+    <row r="462" ht="25.5">
       <c r="A462" s="29"/>
       <c r="C462" s="29">
         <v>11</v>
@@ -21509,7 +22151,7 @@
       </c>
       <c r="AV462" s="29"/>
     </row>
-    <row r="463" ht="12.75">
+    <row r="463" ht="25.5">
       <c r="A463" s="29"/>
       <c r="C463" s="29">
         <v>11</v>
@@ -21535,7 +22177,7 @@
       </c>
       <c r="AV463" s="29"/>
     </row>
-    <row r="464" ht="12.75">
+    <row r="464" ht="25.5">
       <c r="A464" s="29"/>
       <c r="C464" s="29">
         <v>11</v>
@@ -21560,7 +22202,7 @@
       </c>
       <c r="AV464" s="29"/>
     </row>
-    <row r="465" ht="12.75">
+    <row r="465" ht="25.5">
       <c r="A465" s="29"/>
       <c r="C465" s="29">
         <v>11</v>
@@ -21585,7 +22227,7 @@
       </c>
       <c r="AV465" s="29"/>
     </row>
-    <row r="466" ht="12.75">
+    <row r="466" ht="25.5">
       <c r="A466" s="29"/>
       <c r="C466" s="29">
         <v>11</v>
@@ -21611,7 +22253,7 @@
       </c>
       <c r="AV466" s="29"/>
     </row>
-    <row r="467" ht="12.75">
+    <row r="467" ht="25.5">
       <c r="A467" s="29"/>
       <c r="C467" s="29">
         <v>11</v>
@@ -21633,7 +22275,7 @@
       </c>
       <c r="AV467" s="29"/>
     </row>
-    <row r="468" ht="12.75">
+    <row r="468" ht="25.5">
       <c r="A468" s="29"/>
       <c r="C468" s="29">
         <v>11</v>
@@ -21655,7 +22297,7 @@
       </c>
       <c r="AV468" s="29"/>
     </row>
-    <row r="469" ht="12.75">
+    <row r="469" ht="25.5">
       <c r="A469" s="29"/>
       <c r="C469" s="29">
         <v>11</v>
@@ -21678,7 +22320,7 @@
       </c>
       <c r="AV469" s="29"/>
     </row>
-    <row r="470" ht="12.75">
+    <row r="470" ht="25.5">
       <c r="A470" s="29"/>
       <c r="C470" s="29">
         <v>11</v>
@@ -21700,7 +22342,7 @@
       </c>
       <c r="AV470" s="29"/>
     </row>
-    <row r="471" ht="12.75">
+    <row r="471" ht="25.5">
       <c r="A471" s="29"/>
       <c r="C471" s="29">
         <v>11</v>
@@ -21725,7 +22367,7 @@
       </c>
       <c r="AV471" s="29"/>
     </row>
-    <row r="472" ht="12.75">
+    <row r="472" ht="25.5">
       <c r="A472" s="29"/>
       <c r="C472" s="29">
         <v>11</v>
@@ -21743,13 +22385,13 @@
         <v>200</v>
       </c>
       <c r="P472" s="29"/>
-      <c r="S472" s="37" t="s">
+      <c r="S472" s="35" t="s">
         <v>1736</v>
       </c>
-      <c r="T472" s="37" t="s">
+      <c r="T472" s="35" t="s">
         <v>1736</v>
       </c>
-      <c r="V472" s="37" t="s">
+      <c r="V472" s="35" t="s">
         <v>1736</v>
       </c>
       <c r="Y472" s="29" t="s">
@@ -21757,7 +22399,7 @@
       </c>
       <c r="AV472" s="29"/>
     </row>
-    <row r="473" ht="12.75">
+    <row r="473" ht="25.5">
       <c r="A473" s="29"/>
       <c r="C473" s="29">
         <v>32</v>
@@ -21781,7 +22423,7 @@
       <c r="Z473" s="29"/>
       <c r="AV473" s="29"/>
     </row>
-    <row r="474" ht="12.75">
+    <row r="474" ht="25.5">
       <c r="A474" s="29"/>
       <c r="C474" s="29">
         <v>32</v>
@@ -21801,7 +22443,7 @@
       <c r="Z474" s="29"/>
       <c r="AV474" s="29"/>
     </row>
-    <row r="475" ht="12.75">
+    <row r="475" ht="25.5">
       <c r="A475" s="29"/>
       <c r="C475" s="29">
         <v>32</v>
@@ -21886,6 +22528,147 @@
     <row r="487" ht="12.75">
       <c r="AV487" s="29"/>
     </row>
+    <row r="488" ht="12.75"/>
+    <row r="489" ht="12.75"/>
+    <row r="490" ht="12.75"/>
+    <row r="491" ht="12.75"/>
+    <row r="492" ht="12.75"/>
+    <row r="493" ht="12.75"/>
+    <row r="494" ht="12.75"/>
+    <row r="495" ht="12.75"/>
+    <row r="496" ht="12.75"/>
+    <row r="497" ht="12.75"/>
+    <row r="498" ht="12.75"/>
+    <row r="499" ht="12.75"/>
+    <row r="500" ht="12.75"/>
+    <row r="501" ht="12.75"/>
+    <row r="502" ht="12.75"/>
+    <row r="503" ht="12.75"/>
+    <row r="504" ht="12.75"/>
+    <row r="505" ht="12.75"/>
+    <row r="506" ht="12.75"/>
+    <row r="507" ht="12.75"/>
+    <row r="508" ht="12.75"/>
+    <row r="509" ht="12.75"/>
+    <row r="510" ht="12.75"/>
+    <row r="511" ht="12.75"/>
+    <row r="512" ht="12.75"/>
+    <row r="513" ht="12.75"/>
+    <row r="514" ht="12.75"/>
+    <row r="515" ht="12.75"/>
+    <row r="516" ht="12.75"/>
+    <row r="517" ht="12.75"/>
+    <row r="518" ht="12.75"/>
+    <row r="519" ht="12.75"/>
+    <row r="520" ht="12.75"/>
+    <row r="521" ht="12.75"/>
+    <row r="522" ht="12.75"/>
+    <row r="523" ht="12.75"/>
+    <row r="524" ht="12.75"/>
+    <row r="525" ht="12.75"/>
+    <row r="526" ht="12.75"/>
+    <row r="527" ht="12.75"/>
+    <row r="528" ht="12.75"/>
+    <row r="529" ht="12.75"/>
+    <row r="530" ht="12.75"/>
+    <row r="531" ht="12.75"/>
+    <row r="532" ht="12.75"/>
+    <row r="533" ht="12.75"/>
+    <row r="534" ht="12.75"/>
+    <row r="535" ht="12.75"/>
+    <row r="536" ht="12.75"/>
+    <row r="537" ht="12.75"/>
+    <row r="538" ht="12.75"/>
+    <row r="539" ht="12.75"/>
+    <row r="540" ht="12.75"/>
+    <row r="541" ht="12.75"/>
+    <row r="542" ht="12.75"/>
+    <row r="543" ht="12.75"/>
+    <row r="544" ht="12.75"/>
+    <row r="545" ht="12.75"/>
+    <row r="546" ht="12.75"/>
+    <row r="547" ht="12.75"/>
+    <row r="548" ht="12.75"/>
+    <row r="549" ht="12.75"/>
+    <row r="550" ht="12.75"/>
+    <row r="551" ht="12.75"/>
+    <row r="552" ht="12.75"/>
+    <row r="553" ht="12.75"/>
+    <row r="554" ht="12.75"/>
+    <row r="555" ht="12.75"/>
+    <row r="556" ht="12.75"/>
+    <row r="557" ht="12.75"/>
+    <row r="558" ht="12.75"/>
+    <row r="559" ht="12.75"/>
+    <row r="560" ht="12.75"/>
+    <row r="561" ht="12.75"/>
+    <row r="562" ht="12.75"/>
+    <row r="563" ht="12.75"/>
+    <row r="564" ht="12.75"/>
+    <row r="565" ht="12.75"/>
+    <row r="566" ht="12.75"/>
+    <row r="567" ht="12.75"/>
+    <row r="568" ht="12.75"/>
+    <row r="569" ht="12.75"/>
+    <row r="570" ht="12.75"/>
+    <row r="571" ht="12.75"/>
+    <row r="572" ht="12.75"/>
+    <row r="573" ht="12.75"/>
+    <row r="574" ht="12.75"/>
+    <row r="575" ht="12.75"/>
+    <row r="576" ht="12.75"/>
+    <row r="577" ht="12.75"/>
+    <row r="578" ht="12.75"/>
+    <row r="579" ht="12.75"/>
+    <row r="580" ht="12.75"/>
+    <row r="581" ht="12.75"/>
+    <row r="582" ht="12.75"/>
+    <row r="583" ht="12.75"/>
+    <row r="584" ht="12.75"/>
+    <row r="585" ht="12.75"/>
+    <row r="586" ht="12.75"/>
+    <row r="587" ht="12.75"/>
+    <row r="588" ht="12.75"/>
+    <row r="589" ht="12.75"/>
+    <row r="590" ht="12.75"/>
+    <row r="591" ht="12.75"/>
+    <row r="592" ht="12.75"/>
+    <row r="593" ht="12.75"/>
+    <row r="594" ht="12.75"/>
+    <row r="595" ht="12.75"/>
+    <row r="596" ht="12.75"/>
+    <row r="597" ht="12.75"/>
+    <row r="598" ht="12.75"/>
+    <row r="599" ht="12.75"/>
+    <row r="600" ht="12.75"/>
+    <row r="601" ht="12.75"/>
+    <row r="602" ht="12.75"/>
+    <row r="603" ht="12.75"/>
+    <row r="604" ht="12.75"/>
+    <row r="605" ht="12.75"/>
+    <row r="607" ht="12.75"/>
+    <row r="608" ht="12.75"/>
+    <row r="610" ht="12.75"/>
+    <row r="611" ht="12.75"/>
+    <row r="613" ht="12.75"/>
+    <row r="614" ht="12.75"/>
+    <row r="616" ht="12.75"/>
+    <row r="617" ht="12.75"/>
+    <row r="619" ht="12.75"/>
+    <row r="620" ht="12.75"/>
+    <row r="622" ht="12.75"/>
+    <row r="623" ht="12.75"/>
+    <row r="625" ht="12.75"/>
+    <row r="626" ht="12.75"/>
+    <row r="628" ht="12.75"/>
+    <row r="629" ht="12.75"/>
+    <row r="631" ht="12.75"/>
+    <row r="632" ht="12.75"/>
+    <row r="634" ht="12.75"/>
+    <row r="635" ht="12.75"/>
+    <row r="637" ht="12.75"/>
+    <row r="638" ht="12.75"/>
+    <row r="641" ht="12.75"/>
   </sheetData>
   <autoFilter ref="A1:AY364">
     <sortState ref="D1:D366">
@@ -22183,309 +22966,309 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="2">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39" t="s">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37" t="s">
         <v>1744</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
     </row>
     <row r="4">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
     </row>
     <row r="5">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
     </row>
     <row r="6">
-      <c r="A6" s="39"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
     </row>
     <row r="7">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
     </row>
     <row r="8">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
     </row>
     <row r="9">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
     </row>
     <row r="10">
-      <c r="A10" s="39"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
     </row>
     <row r="11">
-      <c r="A11" s="39"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
     </row>
     <row r="12">
-      <c r="A12" s="39"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
     </row>
     <row r="13">
-      <c r="A13" s="39"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
     </row>
     <row r="14">
-      <c r="A14" s="39"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
     </row>
     <row r="15">
-      <c r="A15" s="39"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
     </row>
     <row r="16">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
     </row>
     <row r="17">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
     </row>
     <row r="18">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
     </row>
     <row r="19">
-      <c r="A19" s="39"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
     </row>
     <row r="20">
-      <c r="A20" s="39"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
     </row>
     <row r="21">
-      <c r="A21" s="39"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
     </row>
     <row r="22">
-      <c r="A22" s="39"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
     </row>
     <row r="23">
-      <c r="A23" s="39"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
     </row>
     <row r="24">
-      <c r="A24" s="39"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
     </row>
     <row r="25">
-      <c r="A25" s="39"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
     </row>
     <row r="26">
-      <c r="A26" s="39"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
     </row>
     <row r="27">
-      <c r="A27" s="39"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
     </row>
     <row r="28">
-      <c r="A28" s="39"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
     </row>
     <row r="29">
-      <c r="A29" s="39"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
     </row>
     <row r="30">
-      <c r="A30" s="39"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
     </row>
     <row r="31">
-      <c r="A31" s="39"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
@@ -22493,4 +23276,621 @@
   <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="0" fitToWidth="0" horizontalDpi="600" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="600"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="B10" activeCellId="0" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" style="38" width="12.7109375"/>
+    <col customWidth="1" min="2" max="2" style="38" width="13.00390625"/>
+    <col min="3" max="75" style="38" width="9.140625"/>
+    <col min="76" max="16384" style="38" width="9.140625"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="12.75">
+      <c r="A1" s="39" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
+    </row>
+    <row r="2" ht="12.75">
+      <c r="A2" s="42" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="44"/>
+    </row>
+    <row r="3" ht="27.75" customHeight="1">
+      <c r="A3" s="45" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48" t="s">
+        <v>1749</v>
+      </c>
+      <c r="E3" s="49"/>
+      <c r="F3" s="50"/>
+    </row>
+    <row r="4" ht="38.25" customHeight="1">
+      <c r="A4" s="45">
+        <v>2</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C4" s="47"/>
+      <c r="D4" s="51" t="s">
+        <v>1751</v>
+      </c>
+      <c r="E4" s="52"/>
+      <c r="F4" s="53"/>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5" s="45">
+        <v>500</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+    </row>
+    <row r="6" ht="25.5">
+      <c r="A6" s="56" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="A7" s="57" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B7" s="57" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D7" s="57" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E7" s="57" t="s">
+        <v>1758</v>
+      </c>
+      <c r="F7" s="57" t="s">
+        <v>1759</v>
+      </c>
+      <c r="G7" s="57" t="s">
+        <v>1760</v>
+      </c>
+      <c r="H7" s="57" t="s">
+        <v>1761</v>
+      </c>
+      <c r="I7" s="57" t="s">
+        <v>1762</v>
+      </c>
+      <c r="J7" s="57" t="s">
+        <v>1763</v>
+      </c>
+      <c r="K7" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="L7" s="57" t="s">
+        <v>1764</v>
+      </c>
+      <c r="M7" s="57" t="s">
+        <v>1765</v>
+      </c>
+      <c r="N7" s="57" t="s">
+        <v>1766</v>
+      </c>
+      <c r="O7" s="57" t="s">
+        <v>1767</v>
+      </c>
+      <c r="P7" s="57" t="s">
+        <v>1768</v>
+      </c>
+      <c r="Q7" s="57" t="s">
+        <v>1769</v>
+      </c>
+      <c r="R7" s="57" t="s">
+        <v>1770</v>
+      </c>
+      <c r="S7" s="57" t="s">
+        <v>1771</v>
+      </c>
+      <c r="T7" s="57" t="s">
+        <v>1772</v>
+      </c>
+      <c r="U7" s="57" t="s">
+        <v>1773</v>
+      </c>
+      <c r="V7" s="57" t="s">
+        <v>1774</v>
+      </c>
+      <c r="W7" s="57" t="s">
+        <v>1775</v>
+      </c>
+      <c r="X7" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y7" s="57" t="s">
+        <v>1776</v>
+      </c>
+      <c r="Z7" s="57" t="s">
+        <v>1777</v>
+      </c>
+      <c r="AA7" s="57" t="s">
+        <v>1778</v>
+      </c>
+      <c r="AB7" s="57" t="s">
+        <v>1779</v>
+      </c>
+      <c r="AC7" s="57" t="s">
+        <v>1780</v>
+      </c>
+      <c r="AD7" s="57" t="s">
+        <v>1781</v>
+      </c>
+      <c r="AE7" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF7" s="57" t="s">
+        <v>1782</v>
+      </c>
+      <c r="AG7" s="57" t="s">
+        <v>1783</v>
+      </c>
+      <c r="AH7" s="57" t="s">
+        <v>1784</v>
+      </c>
+      <c r="AI7" s="57" t="s">
+        <v>1785</v>
+      </c>
+      <c r="AJ7" s="57" t="s">
+        <v>1786</v>
+      </c>
+      <c r="AK7" s="57" t="s">
+        <v>1787</v>
+      </c>
+      <c r="AL7" s="57" t="s">
+        <v>1788</v>
+      </c>
+      <c r="AM7" s="57" t="s">
+        <v>1789</v>
+      </c>
+      <c r="AN7" s="57" t="s">
+        <v>1790</v>
+      </c>
+      <c r="AO7" s="57" t="s">
+        <v>1791</v>
+      </c>
+      <c r="AP7" s="57" t="s">
+        <v>1792</v>
+      </c>
+      <c r="AQ7" s="57" t="s">
+        <v>1793</v>
+      </c>
+      <c r="AR7" s="57" t="s">
+        <v>1794</v>
+      </c>
+      <c r="AS7" s="58"/>
+      <c r="AT7" s="58"/>
+      <c r="AU7" s="58"/>
+      <c r="AV7" s="58"/>
+      <c r="AW7" s="58"/>
+      <c r="AX7" s="58"/>
+    </row>
+    <row r="8" ht="32.25" customHeight="1">
+      <c r="A8" s="59" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B8" s="56" t="str">
+        <f>IF(B7&lt;&gt;"",$A$3&amp;"!"&amp;B$7&amp;$A$4&amp;":"&amp;B$7&amp;$A$5,"")</f>
+        <v>BDD!A2:A500</v>
+      </c>
+      <c r="C8" s="56" t="str">
+        <f>IF(C7&lt;&gt;"",$A$3&amp;"!"&amp;C$7&amp;$A$4&amp;":"&amp;C$7&amp;$A$5,"")</f>
+        <v>BDD!B2:B500</v>
+      </c>
+      <c r="D8" s="56" t="str">
+        <f>IF(D7&lt;&gt;"",$A$3&amp;"!"&amp;D$7&amp;$A$4&amp;":"&amp;D$7&amp;$A$5,"")</f>
+        <v>BDD!C2:C500</v>
+      </c>
+      <c r="E8" s="56" t="str">
+        <f>IF(E7&lt;&gt;"",$A$3&amp;"!"&amp;E$7&amp;$A$4&amp;":"&amp;E$7&amp;$A$5,"")</f>
+        <v>BDD!D2:D500</v>
+      </c>
+      <c r="F8" s="56" t="str">
+        <f>IF(F7&lt;&gt;"",$A$3&amp;"!"&amp;F$7&amp;$A$4&amp;":"&amp;F$7&amp;$A$5,"")</f>
+        <v>BDD!E2:E500</v>
+      </c>
+      <c r="G8" s="56" t="str">
+        <f>IF(G7&lt;&gt;"",$A$3&amp;"!"&amp;G$7&amp;$A$4&amp;":"&amp;G$7&amp;$A$5,"")</f>
+        <v>BDD!F2:F500</v>
+      </c>
+      <c r="H8" s="56" t="str">
+        <f>IF(H7&lt;&gt;"",$A$3&amp;"!"&amp;H$7&amp;$A$4&amp;":"&amp;H$7&amp;$A$5,"")</f>
+        <v>BDD!G2:G500</v>
+      </c>
+      <c r="I8" s="56" t="str">
+        <f>IF(I7&lt;&gt;"",$A$3&amp;"!"&amp;I$7&amp;$A$4&amp;":"&amp;I$7&amp;$A$5,"")</f>
+        <v>BDD!H2:H500</v>
+      </c>
+      <c r="J8" s="56" t="str">
+        <f>IF(J7&lt;&gt;"",$A$3&amp;"!"&amp;J$7&amp;$A$4&amp;":"&amp;J$7&amp;$A$5,"")</f>
+        <v>BDD!I2:I500</v>
+      </c>
+      <c r="K8" s="56" t="str">
+        <f>IF(K7&lt;&gt;"",$A$3&amp;"!"&amp;K$7&amp;$A$4&amp;":"&amp;K$7&amp;$A$5,"")</f>
+        <v>BDD!J2:J500</v>
+      </c>
+      <c r="L8" s="56" t="str">
+        <f>IF(L7&lt;&gt;"",$A$3&amp;"!"&amp;L$7&amp;$A$4&amp;":"&amp;L$7&amp;$A$5,"")</f>
+        <v>BDD!K2:K500</v>
+      </c>
+      <c r="M8" s="56" t="str">
+        <f>IF(M7&lt;&gt;"",$A$3&amp;"!"&amp;M$7&amp;$A$4&amp;":"&amp;M$7&amp;$A$5,"")</f>
+        <v>BDD!L2:L500</v>
+      </c>
+      <c r="N8" s="56" t="str">
+        <f>IF(N7&lt;&gt;"",$A$3&amp;"!"&amp;N$7&amp;$A$4&amp;":"&amp;N$7&amp;$A$5,"")</f>
+        <v>BDD!M2:M500</v>
+      </c>
+      <c r="O8" s="56" t="str">
+        <f>IF(O7&lt;&gt;"",$A$3&amp;"!"&amp;O$7&amp;$A$4&amp;":"&amp;O$7&amp;$A$5,"")</f>
+        <v>BDD!N2:N500</v>
+      </c>
+      <c r="P8" s="56" t="str">
+        <f>IF(P7&lt;&gt;"",$A$3&amp;"!"&amp;P$7&amp;$A$4&amp;":"&amp;P$7&amp;$A$5,"")</f>
+        <v>BDD!O2:O500</v>
+      </c>
+      <c r="Q8" s="56" t="str">
+        <f>IF(Q7&lt;&gt;"",$A$3&amp;"!"&amp;Q$7&amp;$A$4&amp;":"&amp;Q$7&amp;$A$5,"")</f>
+        <v>BDD!P2:P500</v>
+      </c>
+      <c r="R8" s="56" t="str">
+        <f>IF(R7&lt;&gt;"",$A$3&amp;"!"&amp;R$7&amp;$A$4&amp;":"&amp;R$7&amp;$A$5,"")</f>
+        <v>BDD!Q2:Q500</v>
+      </c>
+      <c r="S8" s="56" t="str">
+        <f>IF(S7&lt;&gt;"",$A$3&amp;"!"&amp;S$7&amp;$A$4&amp;":"&amp;S$7&amp;$A$5,"")</f>
+        <v>BDD!R2:R500</v>
+      </c>
+      <c r="T8" s="56" t="str">
+        <f>IF(T7&lt;&gt;"",$A$3&amp;"!"&amp;T$7&amp;$A$4&amp;":"&amp;T$7&amp;$A$5,"")</f>
+        <v>BDD!S2:S500</v>
+      </c>
+      <c r="U8" s="56" t="str">
+        <f>IF(U7&lt;&gt;"",$A$3&amp;"!"&amp;U$7&amp;$A$4&amp;":"&amp;U$7&amp;$A$5,"")</f>
+        <v>BDD!T2:T500</v>
+      </c>
+      <c r="V8" s="56" t="str">
+        <f>IF(V7&lt;&gt;"",$A$3&amp;"!"&amp;V$7&amp;$A$4&amp;":"&amp;V$7&amp;$A$5,"")</f>
+        <v>BDD!U2:U500</v>
+      </c>
+      <c r="W8" s="56" t="str">
+        <f>IF(W7&lt;&gt;"",$A$3&amp;"!"&amp;W$7&amp;$A$4&amp;":"&amp;W$7&amp;$A$5,"")</f>
+        <v>BDD!V2:V500</v>
+      </c>
+      <c r="X8" s="56" t="str">
+        <f>IF(X7&lt;&gt;"",$A$3&amp;"!"&amp;X$7&amp;$A$4&amp;":"&amp;X$7&amp;$A$5,"")</f>
+        <v>BDD!W2:W500</v>
+      </c>
+      <c r="Y8" s="56" t="str">
+        <f>IF(Y7&lt;&gt;"",$A$3&amp;"!"&amp;Y$7&amp;$A$4&amp;":"&amp;Y$7&amp;$A$5,"")</f>
+        <v>BDD!X2:X500</v>
+      </c>
+      <c r="Z8" s="56" t="str">
+        <f>IF(Z7&lt;&gt;"",$A$3&amp;"!"&amp;Z$7&amp;$A$4&amp;":"&amp;Z$7&amp;$A$5,"")</f>
+        <v>BDD!Y2:Y500</v>
+      </c>
+      <c r="AA8" s="56" t="str">
+        <f>IF(AA7&lt;&gt;"",$A$3&amp;"!"&amp;AA$7&amp;$A$4&amp;":"&amp;AA$7&amp;$A$5,"")</f>
+        <v>BDD!Z2:Z500</v>
+      </c>
+      <c r="AB8" s="56" t="str">
+        <f>IF(AB7&lt;&gt;"",$A$3&amp;"!"&amp;AB$7&amp;$A$4&amp;":"&amp;AB$7&amp;$A$5,"")</f>
+        <v>BDD!AA2:AA500</v>
+      </c>
+      <c r="AC8" s="56" t="str">
+        <f>IF(AC7&lt;&gt;"",$A$3&amp;"!"&amp;AC$7&amp;$A$4&amp;":"&amp;AC$7&amp;$A$5,"")</f>
+        <v>BDD!AB2:AB500</v>
+      </c>
+      <c r="AD8" s="56" t="str">
+        <f>IF(AD7&lt;&gt;"",$A$3&amp;"!"&amp;AD$7&amp;$A$4&amp;":"&amp;AD$7&amp;$A$5,"")</f>
+        <v>BDD!AC2:AC500</v>
+      </c>
+      <c r="AE8" s="56" t="str">
+        <f>IF(AE7&lt;&gt;"",$A$3&amp;"!"&amp;AE$7&amp;$A$4&amp;":"&amp;AE$7&amp;$A$5,"")</f>
+        <v>BDD!AD2:AD500</v>
+      </c>
+      <c r="AF8" s="56" t="str">
+        <f>IF(AF7&lt;&gt;"",$A$3&amp;"!"&amp;AF$7&amp;$A$4&amp;":"&amp;AF$7&amp;$A$5,"")</f>
+        <v>BDD!AE2:AE500</v>
+      </c>
+      <c r="AG8" s="56" t="str">
+        <f>IF(AG7&lt;&gt;"",$A$3&amp;"!"&amp;AG$7&amp;$A$4&amp;":"&amp;AG$7&amp;$A$5,"")</f>
+        <v>BDD!AF2:AF500</v>
+      </c>
+      <c r="AH8" s="56" t="str">
+        <f>IF(AH7&lt;&gt;"",$A$3&amp;"!"&amp;AH$7&amp;$A$4&amp;":"&amp;AH$7&amp;$A$5,"")</f>
+        <v>BDD!AG2:AG500</v>
+      </c>
+      <c r="AI8" s="56" t="str">
+        <f>IF(AI7&lt;&gt;"",$A$3&amp;"!"&amp;AI$7&amp;$A$4&amp;":"&amp;AI$7&amp;$A$5,"")</f>
+        <v>BDD!AH2:AH500</v>
+      </c>
+      <c r="AJ8" s="56" t="str">
+        <f>IF(AJ7&lt;&gt;"",$A$3&amp;"!"&amp;AJ$7&amp;$A$4&amp;":"&amp;AJ$7&amp;$A$5,"")</f>
+        <v>BDD!AI2:AI500</v>
+      </c>
+      <c r="AK8" s="56" t="str">
+        <f>IF(AK7&lt;&gt;"",$A$3&amp;"!"&amp;AK$7&amp;$A$4&amp;":"&amp;AK$7&amp;$A$5,"")</f>
+        <v>BDD!AJ2:AJ500</v>
+      </c>
+      <c r="AL8" s="56" t="str">
+        <f>IF(AL7&lt;&gt;"",$A$3&amp;"!"&amp;AL$7&amp;$A$4&amp;":"&amp;AL$7&amp;$A$5,"")</f>
+        <v>BDD!AK2:AK500</v>
+      </c>
+      <c r="AM8" s="56" t="str">
+        <f>IF(AM7&lt;&gt;"",$A$3&amp;"!"&amp;AM$7&amp;$A$4&amp;":"&amp;AM$7&amp;$A$5,"")</f>
+        <v>BDD!AL2:AL500</v>
+      </c>
+      <c r="AN8" s="56" t="str">
+        <f>IF(AN7&lt;&gt;"",$A$3&amp;"!"&amp;AN$7&amp;$A$4&amp;":"&amp;AN$7&amp;$A$5,"")</f>
+        <v>BDD!AM2:AM500</v>
+      </c>
+      <c r="AO8" s="56" t="str">
+        <f>IF(AO7&lt;&gt;"",$A$3&amp;"!"&amp;AO$7&amp;$A$4&amp;":"&amp;AO$7&amp;$A$5,"")</f>
+        <v>BDD!AN2:AN500</v>
+      </c>
+      <c r="AP8" s="56" t="str">
+        <f>IF(AP7&lt;&gt;"",$A$3&amp;"!"&amp;AP$7&amp;$A$4&amp;":"&amp;AP$7&amp;$A$5,"")</f>
+        <v>BDD!AO2:AO500</v>
+      </c>
+      <c r="AQ8" s="56" t="str">
+        <f>IF(AQ7&lt;&gt;"",$A$3&amp;"!"&amp;AQ$7&amp;$A$4&amp;":"&amp;AQ$7&amp;$A$5,"")</f>
+        <v>BDD!AP2:AP500</v>
+      </c>
+      <c r="AR8" s="56" t="str">
+        <f>IF(AR7&lt;&gt;"",$A$3&amp;"!"&amp;AR$7&amp;$A$4&amp;":"&amp;AR$7&amp;$A$5,"")</f>
+        <v>BDD!AQ2:AQ500</v>
+      </c>
+    </row>
+    <row r="9" ht="42.75">
+      <c r="A9" s="60" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B9" s="61" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C9" s="61" t="s">
+        <v>1798</v>
+      </c>
+      <c r="D9" s="61" t="s">
+        <v>1799</v>
+      </c>
+      <c r="E9" s="61" t="s">
+        <v>1800</v>
+      </c>
+      <c r="F9" s="61" t="s">
+        <v>1801</v>
+      </c>
+      <c r="G9" s="61" t="s">
+        <v>1802</v>
+      </c>
+      <c r="H9" s="61" t="s">
+        <v>1803</v>
+      </c>
+      <c r="I9" s="61" t="s">
+        <v>1804</v>
+      </c>
+      <c r="J9" s="61" t="s">
+        <v>1805</v>
+      </c>
+      <c r="K9" s="61" t="s">
+        <v>1806</v>
+      </c>
+      <c r="L9" s="61" t="s">
+        <v>1807</v>
+      </c>
+      <c r="M9" s="61" t="s">
+        <v>1808</v>
+      </c>
+      <c r="N9" s="61" t="s">
+        <v>1809</v>
+      </c>
+      <c r="O9" s="61" t="s">
+        <v>1810</v>
+      </c>
+      <c r="P9" s="61" t="s">
+        <v>1811</v>
+      </c>
+      <c r="Q9" s="61" t="s">
+        <v>1812</v>
+      </c>
+      <c r="R9" s="61" t="s">
+        <v>1813</v>
+      </c>
+      <c r="S9" s="61" t="s">
+        <v>1814</v>
+      </c>
+      <c r="T9" s="61" t="s">
+        <v>1815</v>
+      </c>
+      <c r="U9" s="61" t="s">
+        <v>1816</v>
+      </c>
+      <c r="V9" s="61" t="s">
+        <v>1817</v>
+      </c>
+      <c r="W9" s="61" t="s">
+        <v>1818</v>
+      </c>
+      <c r="X9" s="61" t="s">
+        <v>1819</v>
+      </c>
+      <c r="Y9" s="61" t="s">
+        <v>1820</v>
+      </c>
+      <c r="Z9" s="61" t="s">
+        <v>1821</v>
+      </c>
+      <c r="AA9" s="61" t="s">
+        <v>1822</v>
+      </c>
+      <c r="AB9" s="61" t="s">
+        <v>1823</v>
+      </c>
+      <c r="AC9" s="61" t="s">
+        <v>1824</v>
+      </c>
+      <c r="AD9" s="61" t="s">
+        <v>1825</v>
+      </c>
+      <c r="AE9" s="61" t="s">
+        <v>1826</v>
+      </c>
+      <c r="AF9" s="61" t="s">
+        <v>1827</v>
+      </c>
+      <c r="AG9" s="61" t="s">
+        <v>1828</v>
+      </c>
+      <c r="AH9" s="61" t="s">
+        <v>1829</v>
+      </c>
+      <c r="AI9" s="61" t="s">
+        <v>1830</v>
+      </c>
+      <c r="AJ9" s="61" t="s">
+        <v>1831</v>
+      </c>
+      <c r="AK9" s="61" t="s">
+        <v>1832</v>
+      </c>
+      <c r="AL9" s="61" t="s">
+        <v>1833</v>
+      </c>
+      <c r="AM9" s="61" t="s">
+        <v>1834</v>
+      </c>
+      <c r="AN9" s="61" t="s">
+        <v>1835</v>
+      </c>
+      <c r="AO9" s="61" t="s">
+        <v>1836</v>
+      </c>
+      <c r="AP9" s="61" t="s">
+        <v>1837</v>
+      </c>
+      <c r="AQ9" s="61" t="s">
+        <v>1838</v>
+      </c>
+      <c r="AR9" s="61" t="s">
+        <v>1839</v>
+      </c>
+      <c r="AS9" s="62" t="s">
+        <v>1840</v>
+      </c>
+      <c r="AT9" s="62" t="s">
+        <v>1841</v>
+      </c>
+      <c r="AU9" s="63"/>
+      <c r="AV9" s="63"/>
+      <c r="AW9" s="63"/>
+      <c r="AX9" s="63"/>
+    </row>
+    <row r="10" ht="13.5">
+      <c r="B10" s="64"/>
+    </row>
+    <row r="11" ht="12.75"/>
+    <row r="12" ht="12.75"/>
+    <row r="13" ht="12.75"/>
+    <row r="14" ht="12.75"/>
+    <row r="15" ht="12.75"/>
+    <row r="16" ht="12.75"/>
+    <row r="17" ht="12.75"/>
+    <row r="18" ht="12.75"/>
+    <row r="19" ht="12.75"/>
+    <row r="20" ht="12.75"/>
+    <row r="21" ht="12.75"/>
+    <row r="22" ht="12.75"/>
+    <row r="23" ht="12.75"/>
+    <row r="24" ht="12.75"/>
+    <row r="25" ht="12.75"/>
+    <row r="26" ht="12.75"/>
+    <row r="27" ht="12.75"/>
+    <row r="28" ht="12.75"/>
+    <row r="29" ht="12.75"/>
+    <row r="30" ht="12.75"/>
+    <row r="31" ht="12.75"/>
+    <row r="32" ht="12.75"/>
+    <row r="33" ht="12.75"/>
+    <row r="34" ht="12.75"/>
+    <row r="35" ht="12.75"/>
+    <row r="36" ht="12.75"/>
+    <row r="37" ht="12.75"/>
+    <row r="38" ht="12.75"/>
+    <row r="39" ht="12.75"/>
+    <row r="40" ht="12.75"/>
+    <row r="41" ht="12.75"/>
+    <row r="42" ht="12.75"/>
+    <row r="43" ht="12.75"/>
+    <row r="44" ht="12.75"/>
+    <row r="45" ht="12.75"/>
+    <row r="46" ht="12.75"/>
+    <row r="47" ht="12.75"/>
+    <row r="48" ht="12.75"/>
+    <row r="49" ht="12.75"/>
+    <row r="50" ht="12.75"/>
+    <row r="51" ht="12.75"/>
+    <row r="52" ht="12.75"/>
+    <row r="53" ht="12.75"/>
+    <row r="54" ht="12.75"/>
+    <row r="55" ht="12.75"/>
+    <row r="56" ht="12.75"/>
+    <row r="58"/>
+    <row r="59"/>
+    <row r="61"/>
+    <row r="62"/>
+    <row r="64"/>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="B5:C5"/>
+  </mergeCells>
+  <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="0" fitToWidth="0" horizontalDpi="600" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="600"/>
+  <headerFooter/>
+</worksheet>
 </file>